--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -397,7 +397,7 @@
         <v>0.8386041953849267</v>
       </c>
       <c r="E2">
-        <v>0.8712428905033228</v>
+        <v>0.8712428905033227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,13 +408,13 @@
         <v>0.8633523928109853</v>
       </c>
       <c r="C3">
-        <v>0.7946039111004122</v>
+        <v>0.7946039111004123</v>
       </c>
       <c r="D3">
-        <v>0.9209529458884286</v>
+        <v>0.9209529458884285</v>
       </c>
       <c r="E3">
-        <v>0.9349881729693846</v>
+        <v>0.9349881729693845</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="C4">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="D4">
         <v>0.8586020045453152</v>
       </c>
       <c r="E4">
-        <v>0.8870007536572135</v>
+        <v>0.8870007536572134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="C5">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="D5">
         <v>0.8586020045453152</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="C6">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="D6">
         <v>0.8586020045453152</v>
       </c>
       <c r="E6">
-        <v>0.8870007536572135</v>
+        <v>0.8870007536572133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7189754792019948</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="C7">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="D7">
         <v>0.7858763827659158</v>
       </c>
       <c r="E7">
-        <v>0.8206382981593482</v>
+        <v>0.8206382981593483</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7189754792019947</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="C8">
         <v>0.6534151896453276</v>
@@ -499,7 +499,7 @@
         <v>0.7858763827659158</v>
       </c>
       <c r="E8">
-        <v>0.8206382981593482</v>
+        <v>0.8206382981593483</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,10 +510,10 @@
         <v>0.593420452837832</v>
       </c>
       <c r="C9">
-        <v>0.5436965975497434</v>
+        <v>0.5436965975497435</v>
       </c>
       <c r="D9">
-        <v>0.6628578896884836</v>
+        <v>0.6628578896884837</v>
       </c>
       <c r="E9">
         <v>0.7187031044892238</v>
@@ -527,7 +527,7 @@
         <v>0.7189754792019948</v>
       </c>
       <c r="C10">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="D10">
         <v>0.7858763827659158</v>
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.7189754792019948</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="C11">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="D11">
         <v>0.7858763827659158</v>
       </c>
       <c r="E11">
-        <v>0.8206382981593482</v>
+        <v>0.8206382981593483</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -567,7 +567,7 @@
         <v>0.8271615314652395</v>
       </c>
       <c r="E12">
-        <v>0.8734244489345285</v>
+        <v>0.8734244489345283</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,13 +578,13 @@
         <v>0.8633523928109853</v>
       </c>
       <c r="C13">
-        <v>0.7946039111004122</v>
+        <v>0.7946039111004123</v>
       </c>
       <c r="D13">
-        <v>0.9209529458884287</v>
+        <v>0.9209529458884285</v>
       </c>
       <c r="E13">
-        <v>0.9349881729693846</v>
+        <v>0.9349881729693845</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -598,10 +598,10 @@
         <v>0.6715759450015349</v>
       </c>
       <c r="D14">
-        <v>0.8271615314652395</v>
+        <v>0.8271615314652394</v>
       </c>
       <c r="E14">
-        <v>0.8734244489345284</v>
+        <v>0.8734244489345283</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,16 +609,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7189754792019949</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="C15">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="D15">
         <v>0.7858763827659158</v>
       </c>
       <c r="E15">
-        <v>0.8206382981593483</v>
+        <v>0.8206382981593484</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -629,13 +629,13 @@
         <v>0.6555733883742376</v>
       </c>
       <c r="C16">
-        <v>0.5939486568200979</v>
+        <v>0.593948656820098</v>
       </c>
       <c r="D16">
-        <v>0.7127430677776627</v>
+        <v>0.7127430677776626</v>
       </c>
       <c r="E16">
-        <v>0.7535973688962369</v>
+        <v>0.7535973688962367</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.7133845605892402</v>
+        <v>0.7133845605892403</v>
       </c>
       <c r="C17">
         <v>0.6715759450015349</v>
@@ -652,7 +652,7 @@
         <v>0.8271615314652395</v>
       </c>
       <c r="E17">
-        <v>0.8734244489345286</v>
+        <v>0.8734244489345285</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -663,13 +663,13 @@
         <v>0.8633523928109854</v>
       </c>
       <c r="C18">
-        <v>0.7946039111004122</v>
+        <v>0.7946039111004123</v>
       </c>
       <c r="D18">
-        <v>0.9209529458884286</v>
+        <v>0.9209529458884285</v>
       </c>
       <c r="E18">
-        <v>0.9349881729693846</v>
+        <v>0.9349881729693845</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,7 +680,7 @@
         <v>0.6555733883742376</v>
       </c>
       <c r="C19">
-        <v>0.5939486568200979</v>
+        <v>0.593948656820098</v>
       </c>
       <c r="D19">
         <v>0.7127430677776626</v>
@@ -697,13 +697,13 @@
         <v>0.6555733883742376</v>
       </c>
       <c r="C20">
-        <v>0.5939486568200979</v>
+        <v>0.5939486568200981</v>
       </c>
       <c r="D20">
         <v>0.7127430677776626</v>
       </c>
       <c r="E20">
-        <v>0.7535973688962369</v>
+        <v>0.7535973688962367</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>0.6555733883742376</v>
       </c>
       <c r="C21">
-        <v>0.5939486568200979</v>
+        <v>0.5939486568200981</v>
       </c>
       <c r="D21">
         <v>0.7127430677776626</v>
       </c>
       <c r="E21">
-        <v>0.7535973688962369</v>
+        <v>0.7535973688962367</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -737,7 +737,7 @@
         <v>1.052417499523622</v>
       </c>
       <c r="E22">
-        <v>0.9986505292038016</v>
+        <v>0.9986505292038017</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -751,10 +751,10 @@
         <v>0.7221632001495436</v>
       </c>
       <c r="D23">
-        <v>0.8386041953849268</v>
+        <v>0.8386041953849267</v>
       </c>
       <c r="E23">
-        <v>0.8712428905033228</v>
+        <v>0.8712428905033227</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -768,7 +768,7 @@
         <v>0.5878915797025557</v>
       </c>
       <c r="D24">
-        <v>0.7115155642005089</v>
+        <v>0.7115155642005088</v>
       </c>
       <c r="E24">
         <v>0.7622772048076156</v>
@@ -802,7 +802,7 @@
         <v>0.5878915797025557</v>
       </c>
       <c r="D26">
-        <v>0.7115155642005089</v>
+        <v>0.7115155642005088</v>
       </c>
       <c r="E26">
         <v>0.7622772048076156</v>
@@ -816,7 +816,7 @@
         <v>0.7792753031161277</v>
       </c>
       <c r="C27">
-        <v>0.7342232266495156</v>
+        <v>0.7342232266495157</v>
       </c>
       <c r="D27">
         <v>0.8834906702140387</v>
@@ -833,7 +833,7 @@
         <v>0.7792753031161277</v>
       </c>
       <c r="C28">
-        <v>0.7342232266495154</v>
+        <v>0.7342232266495156</v>
       </c>
       <c r="D28">
         <v>0.8834906702140389</v>
@@ -864,13 +864,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.768700551433431</v>
+        <v>0.7687005514334309</v>
       </c>
       <c r="C30">
         <v>0.781133578710911</v>
       </c>
       <c r="D30">
-        <v>0.848886947678996</v>
+        <v>0.8488869476789959</v>
       </c>
       <c r="E30">
         <v>0.8299099542518847</v>
@@ -884,13 +884,13 @@
         <v>0.7687005514334311</v>
       </c>
       <c r="C31">
-        <v>0.781133578710911</v>
+        <v>0.7811335787109109</v>
       </c>
       <c r="D31">
-        <v>0.848886947678996</v>
+        <v>0.8488869476789959</v>
       </c>
       <c r="E31">
-        <v>0.8299099542518847</v>
+        <v>0.8299099542518846</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -901,13 +901,13 @@
         <v>0.8863973077207508</v>
       </c>
       <c r="C32">
-        <v>0.8970271091313043</v>
+        <v>0.8970271091313042</v>
       </c>
       <c r="D32">
         <v>0.9540058331822773</v>
       </c>
       <c r="E32">
-        <v>0.9064656632284895</v>
+        <v>0.9064656632284893</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.7687005514334311</v>
+        <v>0.768700551433431</v>
       </c>
       <c r="C33">
-        <v>0.781133578710911</v>
+        <v>0.7811335787109109</v>
       </c>
       <c r="D33">
         <v>0.8488869476789956</v>
       </c>
       <c r="E33">
-        <v>0.8299099542518849</v>
+        <v>0.8299099542518847</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -969,13 +969,13 @@
         <v>0.7503275444722174</v>
       </c>
       <c r="C36">
-        <v>0.788895413857277</v>
+        <v>0.7888954138572768</v>
       </c>
       <c r="D36">
-        <v>0.8943768664314029</v>
+        <v>0.8943768664314028</v>
       </c>
       <c r="E36">
-        <v>0.8724031310026529</v>
+        <v>0.872403131002653</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,16 +983,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.7753465209966993</v>
+        <v>0.7753465209966992</v>
       </c>
       <c r="C37">
-        <v>0.7786134212707855</v>
+        <v>0.7786134212707853</v>
       </c>
       <c r="D37">
         <v>0.8409457380242082</v>
       </c>
       <c r="E37">
-        <v>0.8204650641758268</v>
+        <v>0.8204650641758269</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1000,16 +1000,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.7753465209966993</v>
+        <v>0.7753465209966992</v>
       </c>
       <c r="C38">
-        <v>0.7786134212707855</v>
+        <v>0.7786134212707853</v>
       </c>
       <c r="D38">
-        <v>0.8409457380242081</v>
+        <v>0.840945738024208</v>
       </c>
       <c r="E38">
-        <v>0.8204650641758267</v>
+        <v>0.8204650641758269</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>0.9362469461208377</v>
       </c>
       <c r="C39">
-        <v>0.9425119558656556</v>
+        <v>0.9425119558656553</v>
       </c>
       <c r="D39">
-        <v>0.9884671871731816</v>
+        <v>0.9884671871731814</v>
       </c>
       <c r="E39">
-        <v>0.9311412336547479</v>
+        <v>0.9311412336547477</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.129408309971416</v>
+        <v>1.129408309971417</v>
       </c>
       <c r="C40">
         <v>1.142626797290608</v>
@@ -1071,13 +1071,13 @@
         <v>0.8455970313622491</v>
       </c>
       <c r="C42">
-        <v>0.8458725049579088</v>
+        <v>0.8458725049579086</v>
       </c>
       <c r="D42">
         <v>0.9130339321364581</v>
       </c>
       <c r="E42">
-        <v>0.8754149823697814</v>
+        <v>0.8754149823697813</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0.761540942979532</v>
       </c>
       <c r="C45">
-        <v>0.7748143799262751</v>
+        <v>0.774814379926275</v>
       </c>
       <c r="D45">
-        <v>0.8686762017042564</v>
+        <v>0.8686762017042563</v>
       </c>
       <c r="E45">
         <v>0.8475788601614018</v>
@@ -1170,13 +1170,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.903116982375661</v>
+        <v>0.9031169823756611</v>
       </c>
       <c r="C48">
-        <v>0.9207406488927097</v>
+        <v>0.9207406488927096</v>
       </c>
       <c r="D48">
-        <v>0.9811947392238622</v>
+        <v>0.981194739223862</v>
       </c>
       <c r="E48">
         <v>0.9409574600452741</v>
@@ -1196,7 +1196,7 @@
         <v>0.6849296708337388</v>
       </c>
       <c r="E49">
-        <v>0.7024376855034751</v>
+        <v>0.7024376855034752</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>0.7541142387429496</v>
       </c>
       <c r="E50">
-        <v>0.7901397720236254</v>
+        <v>0.7901397720236255</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>0.6916310508424267</v>
       </c>
       <c r="C51">
-        <v>0.6238588457755804</v>
+        <v>0.6238588457755805</v>
       </c>
       <c r="D51">
         <v>0.7012228879516207</v>
@@ -1238,13 +1238,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.7102251837627088</v>
+        <v>0.7102251837627089</v>
       </c>
       <c r="C52">
         <v>0.6540732013539721</v>
       </c>
       <c r="D52">
-        <v>0.7430397845956289</v>
+        <v>0.7430397845956288</v>
       </c>
       <c r="E52">
         <v>0.7740112390809378</v>
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.5988328556415901</v>
+        <v>0.5988328556415903</v>
       </c>
       <c r="C53">
-        <v>0.5434903975965534</v>
+        <v>0.5434903975965535</v>
       </c>
       <c r="D53">
-        <v>0.6229241076105653</v>
+        <v>0.6229241076105652</v>
       </c>
       <c r="E53">
         <v>0.6474532510215472</v>
@@ -1272,16 +1272,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.5678124218590989</v>
+        <v>0.567812421859099</v>
       </c>
       <c r="C54">
         <v>0.5203461645815555</v>
       </c>
       <c r="D54">
-        <v>0.6030824163345396</v>
+        <v>0.6030824163345397</v>
       </c>
       <c r="E54">
-        <v>0.6275881133238443</v>
+        <v>0.6275881133238445</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>0.8489225822760139</v>
       </c>
       <c r="E56">
-        <v>0.8574607946722108</v>
+        <v>0.857460794672211</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1329,7 +1329,7 @@
         <v>0.6444010955101178</v>
       </c>
       <c r="D57">
-        <v>0.736120484794338</v>
+        <v>0.7361204847943379</v>
       </c>
       <c r="E57">
         <v>0.770760097477299</v>
@@ -1346,7 +1346,7 @@
         <v>0.7244134742568363</v>
       </c>
       <c r="D58">
-        <v>0.8438369043407294</v>
+        <v>0.8438369043407292</v>
       </c>
       <c r="E58">
         <v>0.868593957185157</v>
@@ -1363,7 +1363,7 @@
         <v>0.7244134742568363</v>
       </c>
       <c r="D59">
-        <v>0.8438369043407294</v>
+        <v>0.8438369043407292</v>
       </c>
       <c r="E59">
         <v>0.868593957185157</v>
@@ -1380,7 +1380,7 @@
         <v>0.5500862157517188</v>
       </c>
       <c r="D60">
-        <v>0.6756191631339056</v>
+        <v>0.6756191631339055</v>
       </c>
       <c r="E60">
         <v>0.7301549346452951</v>
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.6146825042777286</v>
+        <v>0.614682504277729</v>
       </c>
       <c r="C61">
         <v>0.5500862157517188</v>
       </c>
       <c r="D61">
-        <v>0.6756191631339056</v>
+        <v>0.6756191631339055</v>
       </c>
       <c r="E61">
-        <v>0.7301549346452952</v>
+        <v>0.7301549346452954</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.4227279554736002</v>
+        <v>0.4227279554736003</v>
       </c>
       <c r="C62">
-        <v>0.4127516795939443</v>
+        <v>0.4127516795939444</v>
       </c>
       <c r="D62">
-        <v>0.5944693055707887</v>
+        <v>0.5944693055707888</v>
       </c>
       <c r="E62">
         <v>0.6837397428121524</v>
@@ -1425,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.4227279554736001</v>
+        <v>0.4227279554736002</v>
       </c>
       <c r="C63">
-        <v>0.4127516795939443</v>
+        <v>0.4127516795939444</v>
       </c>
       <c r="D63">
         <v>0.5944693055707888</v>
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.3437541029678432</v>
+        <v>0.3437541029678433</v>
       </c>
       <c r="C64">
         <v>0.361913870323916</v>
@@ -1465,7 +1465,7 @@
         <v>0.361913870323916</v>
       </c>
       <c r="D65">
-        <v>0.5582319827344282</v>
+        <v>0.5582319827344281</v>
       </c>
       <c r="E65">
         <v>0.6525019510647927</v>
@@ -1479,10 +1479,10 @@
         <v>0.9469224269581993</v>
       </c>
       <c r="C66">
-        <v>0.9249529299116485</v>
+        <v>0.9249529299116482</v>
       </c>
       <c r="D66">
-        <v>0.9224206635404925</v>
+        <v>0.9224206635404922</v>
       </c>
       <c r="E66">
         <v>0.8711699640080313</v>
@@ -1502,7 +1502,7 @@
         <v>1.048223088255449</v>
       </c>
       <c r="E67">
-        <v>0.9662624344024615</v>
+        <v>0.9662624344024613</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1510,13 +1510,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.9469224269581993</v>
+        <v>0.9469224269581994</v>
       </c>
       <c r="C68">
         <v>0.9249529299116485</v>
       </c>
       <c r="D68">
-        <v>0.9224206635404925</v>
+        <v>0.9224206635404922</v>
       </c>
       <c r="E68">
         <v>0.8711699640080313</v>
@@ -1536,7 +1536,7 @@
         <v>1.048223088255449</v>
       </c>
       <c r="E69">
-        <v>0.9662624344024616</v>
+        <v>0.9662624344024613</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>1.048223088255449</v>
       </c>
       <c r="E70">
-        <v>0.9662624344024615</v>
+        <v>0.9662624344024613</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1561,7 +1561,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.265105206487928</v>
+        <v>1.265105206487927</v>
       </c>
       <c r="C71">
         <v>1.225799102882386</v>
@@ -1584,10 +1584,10 @@
         <v>1.161012475513529</v>
       </c>
       <c r="D72">
-        <v>1.082072374053621</v>
+        <v>1.08207237405362</v>
       </c>
       <c r="E72">
-        <v>0.9776571194259568</v>
+        <v>0.9776571194259565</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1604,7 +1604,7 @@
         <v>1.082072374053621</v>
       </c>
       <c r="E73">
-        <v>0.9776571194259567</v>
+        <v>0.9776571194259565</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>1.082072374053621</v>
       </c>
       <c r="E74">
-        <v>0.9776571194259568</v>
+        <v>0.9776571194259565</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1629,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.9260694205645001</v>
+        <v>0.9260694205645003</v>
       </c>
       <c r="C75">
         <v>0.9114738740441647</v>
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.160315997153297</v>
+        <v>1.160315997153298</v>
       </c>
       <c r="C77">
         <v>1.112950402822473</v>
@@ -1672,7 +1672,7 @@
         <v>1.056117737446965</v>
       </c>
       <c r="E77">
-        <v>0.9637526180837622</v>
+        <v>0.9637526180837621</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.160315997153297</v>
+        <v>1.160315997153298</v>
       </c>
       <c r="C79">
         <v>1.112950402822473</v>
       </c>
       <c r="D79">
-        <v>1.056117737446965</v>
+        <v>1.056117737446964</v>
       </c>
       <c r="E79">
         <v>0.9637526180837622</v>
@@ -1723,7 +1723,7 @@
         <v>1.056117737446965</v>
       </c>
       <c r="E80">
-        <v>0.9637526180837622</v>
+        <v>0.9637526180837621</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1740,7 +1740,7 @@
         <v>1.107987658513416</v>
       </c>
       <c r="E81">
-        <v>0.9905363711042668</v>
+        <v>0.9905363711042666</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1757,7 +1757,7 @@
         <v>1.107987658513416</v>
       </c>
       <c r="E82">
-        <v>0.9905363711042668</v>
+        <v>0.9905363711042666</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1791,7 +1791,7 @@
         <v>0.9902893829591648</v>
       </c>
       <c r="E84">
-        <v>0.9000539178104614</v>
+        <v>0.9000539178104615</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>1.13719441663088</v>
       </c>
       <c r="E87">
-        <v>0.9989523734548926</v>
+        <v>0.9989523734548925</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1876,7 +1876,7 @@
         <v>1.13719441663088</v>
       </c>
       <c r="E89">
-        <v>0.9989523734548927</v>
+        <v>0.9989523734548926</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1918,7 +1918,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.291167915809402</v>
+        <v>1.291167915809401</v>
       </c>
       <c r="C92">
         <v>1.16316784590018</v>
@@ -1944,7 +1944,7 @@
         <v>1.088868232993543</v>
       </c>
       <c r="E93">
-        <v>0.9745265417065708</v>
+        <v>0.9745265417065706</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1958,10 +1958,10 @@
         <v>1.048383816394538</v>
       </c>
       <c r="D94">
-        <v>0.8949549864798303</v>
+        <v>0.8949549864798304</v>
       </c>
       <c r="E94">
-        <v>0.8039743963938829</v>
+        <v>0.8039743963938828</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1995,7 +1995,7 @@
         <v>1.0363425015505</v>
       </c>
       <c r="E96">
-        <v>0.907722402911794</v>
+        <v>0.9077224029117937</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2012,7 +2012,7 @@
         <v>1.088868232993543</v>
       </c>
       <c r="E97">
-        <v>0.9745265417065706</v>
+        <v>0.9745265417065707</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2029,7 +2029,7 @@
         <v>1.046590416174621</v>
       </c>
       <c r="E98">
-        <v>0.959499266948968</v>
+        <v>0.9594992669489679</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2077,7 +2077,7 @@
         <v>1.065623976165539</v>
       </c>
       <c r="D101">
-        <v>0.9971276207708084</v>
+        <v>0.9971276207708082</v>
       </c>
       <c r="E101">
         <v>0.9069637294266193</v>
@@ -2097,7 +2097,7 @@
         <v>1.022031274740191</v>
       </c>
       <c r="E102">
-        <v>0.9371272303224157</v>
+        <v>0.9371272303224156</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2114,7 +2114,7 @@
         <v>1.003791225242444</v>
       </c>
       <c r="E103">
-        <v>0.9413706116693011</v>
+        <v>0.9413706116693012</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2131,7 +2131,7 @@
         <v>1.003791225242444</v>
       </c>
       <c r="E104">
-        <v>0.9413706116693011</v>
+        <v>0.9413706116693012</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2145,7 +2145,7 @@
         <v>1.149881070292067</v>
       </c>
       <c r="D105">
-        <v>1.11749994284713</v>
+        <v>1.117499942847129</v>
       </c>
       <c r="E105">
         <v>1.005212755851081</v>
@@ -2199,7 +2199,7 @@
         <v>1.342040242513134</v>
       </c>
       <c r="E108">
-        <v>1.134036223986426</v>
+        <v>1.134036223986425</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,7 +2207,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.983510269835746</v>
+        <v>0.9835102698357461</v>
       </c>
       <c r="C109">
         <v>1.068491659782862</v>
@@ -2224,7 +2224,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.983510269835746</v>
+        <v>0.9835102698357461</v>
       </c>
       <c r="C110">
         <v>1.068491659782862</v>
@@ -2233,7 +2233,7 @@
         <v>1.080378890037962</v>
       </c>
       <c r="E110">
-        <v>0.9852958902130047</v>
+        <v>0.9852958902130046</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2250,7 +2250,7 @@
         <v>1.047977945438024</v>
       </c>
       <c r="E111">
-        <v>0.9588089988269243</v>
+        <v>0.9588089988269242</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2275,7 +2275,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.9277948962799102</v>
+        <v>0.9277948962799103</v>
       </c>
       <c r="C113">
         <v>1.033174557437282</v>
@@ -2309,13 +2309,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.9774174953343839</v>
+        <v>0.9774174953343842</v>
       </c>
       <c r="C115">
-        <v>0.9991969761371047</v>
+        <v>0.9991969761371046</v>
       </c>
       <c r="D115">
-        <v>0.9954826985334212</v>
+        <v>0.9954826985334209</v>
       </c>
       <c r="E115">
         <v>0.936277070339995</v>
@@ -2326,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.9803013945082909</v>
+        <v>0.980301394508291</v>
       </c>
       <c r="C116">
         <v>1.004803414978736</v>
@@ -2335,7 +2335,7 @@
         <v>1.002910969331609</v>
       </c>
       <c r="E116">
-        <v>0.9440747726570676</v>
+        <v>0.9440747726570679</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.9288586409920538</v>
+        <v>0.928858640992054</v>
       </c>
       <c r="C117">
         <v>1.034809860390429</v>
@@ -2403,7 +2403,7 @@
         <v>1.058371796273389</v>
       </c>
       <c r="E120">
-        <v>0.9630192148598287</v>
+        <v>0.9630192148598286</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2431,7 +2431,7 @@
         <v>0.992700137635703</v>
       </c>
       <c r="C122">
-        <v>1.076306488143299</v>
+        <v>1.076306488143298</v>
       </c>
       <c r="D122">
         <v>1.083888781175843</v>
@@ -2465,7 +2465,7 @@
         <v>0.9927001376357031</v>
       </c>
       <c r="C124">
-        <v>1.076306488143299</v>
+        <v>1.076306488143298</v>
       </c>
       <c r="D124">
         <v>1.083888781175843</v>
@@ -2488,7 +2488,7 @@
         <v>1.067782802366604</v>
       </c>
       <c r="E125">
-        <v>0.9761313952408963</v>
+        <v>0.9761313952408962</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2502,7 +2502,7 @@
         <v>1.213125730768476</v>
       </c>
       <c r="D126">
-        <v>1.182806530346242</v>
+        <v>1.182806530346241</v>
       </c>
       <c r="E126">
         <v>1.041948826153741</v>
@@ -2533,13 +2533,13 @@
         <v>1.419639137623199</v>
       </c>
       <c r="C128">
-        <v>1.420684206661828</v>
+        <v>1.420684206661827</v>
       </c>
       <c r="D128">
         <v>1.282087565029544</v>
       </c>
       <c r="E128">
-        <v>1.10689805045524</v>
+        <v>1.106898050455239</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2607,7 +2607,7 @@
         <v>1.004734163260753</v>
       </c>
       <c r="E132">
-        <v>0.8935343539785564</v>
+        <v>0.8935343539785563</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2624,7 +2624,7 @@
         <v>1.02132974197547</v>
       </c>
       <c r="E133">
-        <v>0.9144400079699261</v>
+        <v>0.914440007969926</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2641,7 +2641,7 @@
         <v>1.023189877010973</v>
       </c>
       <c r="E134">
-        <v>0.9036388592092502</v>
+        <v>0.9036388592092501</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2675,7 +2675,7 @@
         <v>0.9735688846703232</v>
       </c>
       <c r="E136">
-        <v>0.9035525134266431</v>
+        <v>0.9035525134266429</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,7 +2686,7 @@
         <v>1.081024924167908</v>
       </c>
       <c r="C137">
-        <v>1.023703265598809</v>
+        <v>1.023703265598808</v>
       </c>
       <c r="D137">
         <v>0.9849974217075217</v>
@@ -2703,7 +2703,7 @@
         <v>1.081024924167908</v>
       </c>
       <c r="C138">
-        <v>1.023703265598809</v>
+        <v>1.023703265598808</v>
       </c>
       <c r="D138">
         <v>0.9849974217075218</v>
@@ -2740,7 +2740,7 @@
         <v>1.096443578034272</v>
       </c>
       <c r="D140">
-        <v>0.9462188854957615</v>
+        <v>0.9462188854957614</v>
       </c>
       <c r="E140">
         <v>0.8684126050482073</v>
@@ -2839,7 +2839,7 @@
         <v>1.386640044785608</v>
       </c>
       <c r="C146">
-        <v>1.383675067689154</v>
+        <v>1.383675067689153</v>
       </c>
       <c r="D146">
         <v>1.239834315278945</v>
@@ -2887,7 +2887,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.9766948431329017</v>
+        <v>0.9766948431329019</v>
       </c>
       <c r="C149">
         <v>0.9400488281692324</v>
@@ -2910,7 +2910,7 @@
         <v>0.9400488281692324</v>
       </c>
       <c r="D150">
-        <v>0.9265170181350533</v>
+        <v>0.926517018135053</v>
       </c>
       <c r="E150">
         <v>0.8747705698893521</v>
@@ -2924,13 +2924,13 @@
         <v>0.9715206867955589</v>
       </c>
       <c r="C151">
-        <v>0.9294671242190307</v>
+        <v>0.9294671242190305</v>
       </c>
       <c r="D151">
-        <v>0.9094025685829437</v>
+        <v>0.9094025685829435</v>
       </c>
       <c r="E151">
-        <v>0.853623740054942</v>
+        <v>0.8536237400549419</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2944,7 +2944,7 @@
         <v>0.9400488281692325</v>
       </c>
       <c r="D152">
-        <v>0.9265170181350532</v>
+        <v>0.926517018135053</v>
       </c>
       <c r="E152">
         <v>0.8747705698893521</v>
@@ -2992,10 +2992,10 @@
         <v>0.8874207816062311</v>
       </c>
       <c r="C155">
-        <v>0.9015226057409907</v>
+        <v>0.9015226057409906</v>
       </c>
       <c r="D155">
-        <v>0.9296167594245844</v>
+        <v>0.9296167594245841</v>
       </c>
       <c r="E155">
         <v>0.8766576888093839</v>
@@ -3006,13 +3006,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.8874207816062313</v>
+        <v>0.8874207816062312</v>
       </c>
       <c r="C156">
         <v>0.9015226057409907</v>
       </c>
       <c r="D156">
-        <v>0.9296167594245844</v>
+        <v>0.9296167594245842</v>
       </c>
       <c r="E156">
         <v>0.8766576888093839</v>
@@ -3040,7 +3040,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.9590979035388627</v>
+        <v>0.9590979035388629</v>
       </c>
       <c r="C158">
         <v>0.9701853720743925</v>
@@ -3060,13 +3060,13 @@
         <v>0.9297605427074278</v>
       </c>
       <c r="C159">
-        <v>0.8895311541462934</v>
+        <v>0.8895311541462932</v>
       </c>
       <c r="D159">
-        <v>0.8854180284980031</v>
+        <v>0.885418028498003</v>
       </c>
       <c r="E159">
-        <v>0.8457561471748778</v>
+        <v>0.8457561471748777</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3074,16 +3074,16 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.8819071823325424</v>
+        <v>0.8819071823325425</v>
       </c>
       <c r="C160">
-        <v>0.9084179854499745</v>
+        <v>0.9084179854499744</v>
       </c>
       <c r="D160">
         <v>0.9401056292352129</v>
       </c>
       <c r="E160">
-        <v>0.8858847361356229</v>
+        <v>0.8858847361356228</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3131,10 +3131,10 @@
         <v>0.9009927311907451</v>
       </c>
       <c r="D163">
-        <v>0.9070596442292621</v>
+        <v>0.907059644229262</v>
       </c>
       <c r="E163">
-        <v>0.8663225349309362</v>
+        <v>0.8663225349309361</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3145,13 +3145,13 @@
         <v>0.9483580292461691</v>
       </c>
       <c r="C164">
-        <v>0.9868593546629443</v>
+        <v>0.9868593546629439</v>
       </c>
       <c r="D164">
         <v>1.004043424047779</v>
       </c>
       <c r="E164">
-        <v>0.9316817864363736</v>
+        <v>0.9316817864363734</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3162,13 +3162,13 @@
         <v>0.831633097898676</v>
       </c>
       <c r="C165">
-        <v>0.8950970540716643</v>
+        <v>0.8950970540716644</v>
       </c>
       <c r="D165">
-        <v>0.9477927328967689</v>
+        <v>0.947792732896769</v>
       </c>
       <c r="E165">
-        <v>0.8944017072511312</v>
+        <v>0.8944017072511311</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3179,13 +3179,13 @@
         <v>0.8316330978986761</v>
       </c>
       <c r="C166">
-        <v>0.8950970540716643</v>
+        <v>0.8950970540716642</v>
       </c>
       <c r="D166">
         <v>0.9477927328967689</v>
       </c>
       <c r="E166">
-        <v>0.8944017072511312</v>
+        <v>0.8944017072511311</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3233,10 +3233,10 @@
         <v>1.130746797689604</v>
       </c>
       <c r="D169">
-        <v>1.05246418248315</v>
+        <v>1.052464182483149</v>
       </c>
       <c r="E169">
-        <v>0.9554036619295195</v>
+        <v>0.9554036619295194</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3247,7 +3247,7 @@
         <v>1.165414816197652</v>
       </c>
       <c r="C170">
-        <v>1.085675259068258</v>
+        <v>1.085675259068257</v>
       </c>
       <c r="D170">
         <v>1.007503363505683</v>
@@ -3264,13 +3264,13 @@
         <v>1.193429442057008</v>
       </c>
       <c r="C171">
-        <v>1.133026518152131</v>
+        <v>1.13302651815213</v>
       </c>
       <c r="D171">
         <v>1.055528231258736</v>
       </c>
       <c r="E171">
-        <v>0.9589604739276855</v>
+        <v>0.9589604739276856</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3318,7 +3318,7 @@
         <v>1.068321459763216</v>
       </c>
       <c r="D174">
-        <v>0.9734205163685663</v>
+        <v>0.9734205163685662</v>
       </c>
       <c r="E174">
         <v>0.8709213173786048</v>
@@ -3335,10 +3335,10 @@
         <v>1.278413753817088</v>
       </c>
       <c r="D175">
-        <v>1.202372859662125</v>
+        <v>1.202372859662124</v>
       </c>
       <c r="E175">
-        <v>1.051181745406028</v>
+        <v>1.051181745406029</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>1.094965203387392</v>
       </c>
       <c r="E176">
-        <v>0.9896141138764799</v>
+        <v>0.9896141138764798</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>1.094965203387392</v>
       </c>
       <c r="E177">
-        <v>0.9896141138764798</v>
+        <v>0.9896141138764797</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3386,10 +3386,10 @@
         <v>1.00047091258212</v>
       </c>
       <c r="D178">
-        <v>0.9768766394099772</v>
+        <v>0.976876639409977</v>
       </c>
       <c r="E178">
-        <v>0.9163435560327763</v>
+        <v>0.9163435560327762</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3406,7 +3406,7 @@
         <v>1.07067750802529</v>
       </c>
       <c r="E179">
-        <v>0.9721235691536559</v>
+        <v>0.9721235691536557</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3505,7 +3505,7 @@
         <v>1.20619306948167</v>
       </c>
       <c r="D185">
-        <v>1.158645165523269</v>
+        <v>1.158645165523268</v>
       </c>
       <c r="E185">
         <v>1.022680120984256</v>
@@ -3542,7 +3542,7 @@
         <v>1.101596870940095</v>
       </c>
       <c r="E187">
-        <v>0.9880943864869225</v>
+        <v>0.9880943864869223</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3607,7 +3607,7 @@
         <v>1.227182543043606</v>
       </c>
       <c r="D191">
-        <v>1.165055948575085</v>
+        <v>1.165055948575084</v>
       </c>
       <c r="E191">
         <v>1.025703742851859</v>
@@ -3644,7 +3644,7 @@
         <v>1.022031274740191</v>
       </c>
       <c r="E193">
-        <v>0.9371272303224157</v>
+        <v>0.9371272303224156</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>0.9782082803576628</v>
       </c>
       <c r="E194">
-        <v>0.8840484760183682</v>
+        <v>0.8840484760183681</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3678,7 +3678,7 @@
         <v>1.047861819964388</v>
       </c>
       <c r="E195">
-        <v>0.9500611431168088</v>
+        <v>0.9500611431168084</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3695,7 +3695,7 @@
         <v>0.9867088195114418</v>
       </c>
       <c r="E196">
-        <v>0.9217856817696534</v>
+        <v>0.9217856817696531</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3709,10 +3709,10 @@
         <v>1.006215523838469</v>
       </c>
       <c r="D197">
-        <v>0.9848121173150917</v>
+        <v>0.9848121173150916</v>
       </c>
       <c r="E197">
-        <v>0.9202045876658568</v>
+        <v>0.920204587665857</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3723,7 +3723,7 @@
         <v>1.00594393425368</v>
       </c>
       <c r="C198">
-        <v>0.9862340479129379</v>
+        <v>0.9862340479129378</v>
       </c>
       <c r="D198">
         <v>0.9554724215214386</v>
@@ -3763,7 +3763,7 @@
         <v>1.092922895042445</v>
       </c>
       <c r="E200">
-        <v>0.9869506489944327</v>
+        <v>0.9869506489944329</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3771,7 +3771,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1.227652617840102</v>
+        <v>1.227652617840103</v>
       </c>
       <c r="C201">
         <v>1.25100435723727</v>
@@ -3794,7 +3794,7 @@
         <v>1.384683338629366</v>
       </c>
       <c r="D202">
-        <v>1.185806577824382</v>
+        <v>1.185806577824381</v>
       </c>
       <c r="E202">
         <v>1.027492648606174</v>
@@ -3811,10 +3811,10 @@
         <v>1.12845502831524</v>
       </c>
       <c r="D203">
-        <v>1.095651819376204</v>
+        <v>1.095651819376203</v>
       </c>
       <c r="E203">
-        <v>0.9870730147244231</v>
+        <v>0.9870730147244229</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3856,13 +3856,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.9168895145596301</v>
+        <v>0.9168895145596303</v>
       </c>
       <c r="C206">
-        <v>0.8086009486198505</v>
+        <v>0.8086009486198504</v>
       </c>
       <c r="D206">
-        <v>0.8144265612698949</v>
+        <v>0.814426561269895</v>
       </c>
       <c r="E206">
         <v>0.8017018694738599</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.8202392189924397</v>
+        <v>0.8202392189924399</v>
       </c>
       <c r="C207">
         <v>0.7205834879128268</v>
       </c>
       <c r="D207">
-        <v>0.7419196450679244</v>
+        <v>0.7419196450679242</v>
       </c>
       <c r="E207">
-        <v>0.7480482176599806</v>
+        <v>0.7480482176599805</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,7 +3890,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.8202392189924397</v>
+        <v>0.8202392189924399</v>
       </c>
       <c r="C208">
         <v>0.7205834879128268</v>
@@ -3907,16 +3907,16 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.9102308290731284</v>
+        <v>0.9102308290731285</v>
       </c>
       <c r="C209">
         <v>0.7902182894958504</v>
       </c>
       <c r="D209">
-        <v>0.7736641024261461</v>
+        <v>0.7736641024261462</v>
       </c>
       <c r="E209">
-        <v>0.746334183487256</v>
+        <v>0.7463341834872559</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,10 +3924,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.8202392189924397</v>
+        <v>0.8202392189924398</v>
       </c>
       <c r="C210">
-        <v>0.7205834879128269</v>
+        <v>0.7205834879128268</v>
       </c>
       <c r="D210">
         <v>0.7419196450679242</v>
@@ -3941,7 +3941,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.8376362437823203</v>
+        <v>0.8376362437823204</v>
       </c>
       <c r="C211">
         <v>0.8018590231007308</v>
@@ -3958,13 +3958,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.8833644888722076</v>
+        <v>0.8833644888722078</v>
       </c>
       <c r="C212">
         <v>0.8756638774046012</v>
       </c>
       <c r="D212">
-        <v>0.9315974656342662</v>
+        <v>0.9315974656342663</v>
       </c>
       <c r="E212">
         <v>0.8858913770101015</v>
@@ -3981,10 +3981,10 @@
         <v>0.7205834879128268</v>
       </c>
       <c r="D213">
-        <v>0.7419196450679244</v>
+        <v>0.7419196450679243</v>
       </c>
       <c r="E213">
-        <v>0.7480482176599806</v>
+        <v>0.7480482176599805</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3992,7 +3992,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.7480885318216893</v>
+        <v>0.7480885318216894</v>
       </c>
       <c r="C214">
         <v>0.7055953889887067</v>
@@ -4001,7 +4001,7 @@
         <v>0.7813793429276257</v>
       </c>
       <c r="E214">
-        <v>0.7754673798762259</v>
+        <v>0.7754673798762258</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.7480885318216893</v>
+        <v>0.7480885318216894</v>
       </c>
       <c r="C215">
         <v>0.7055953889887068</v>
       </c>
       <c r="D215">
-        <v>0.7813793429276256</v>
+        <v>0.7813793429276257</v>
       </c>
       <c r="E215">
-        <v>0.7754673798762259</v>
+        <v>0.7754673798762258</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.694199081798512</v>
+        <v>0.6941990817985121</v>
       </c>
       <c r="C216">
         <v>0.6700850192916988</v>
@@ -4043,7 +4043,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.7610666916838007</v>
+        <v>0.7610666916838009</v>
       </c>
       <c r="C217">
         <v>0.7206754941427108</v>
@@ -4052,7 +4052,7 @@
         <v>0.7976136207906707</v>
       </c>
       <c r="E217">
-        <v>0.78961294247743</v>
+        <v>0.7896129424774301</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,7 +4063,7 @@
         <v>0.8741650447169771</v>
       </c>
       <c r="C218">
-        <v>0.8507248219804278</v>
+        <v>0.8507248219804276</v>
       </c>
       <c r="D218">
         <v>0.9246235564340636</v>
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.7948752615192938</v>
+        <v>0.794875261519294</v>
       </c>
       <c r="C219">
-        <v>0.8154921345184805</v>
+        <v>0.8154921345184803</v>
       </c>
       <c r="D219">
-        <v>0.903126613900967</v>
+        <v>0.9031266139009672</v>
       </c>
       <c r="E219">
-        <v>0.8705084452877921</v>
+        <v>0.8705084452877924</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,16 +4094,16 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.8568282475587626</v>
+        <v>0.8568282475587627</v>
       </c>
       <c r="C220">
-        <v>0.8816068239945168</v>
+        <v>0.8816068239945166</v>
       </c>
       <c r="D220">
         <v>0.9496984132399342</v>
       </c>
       <c r="E220">
-        <v>0.9006890826224514</v>
+        <v>0.9006890826224513</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.9190996664120357</v>
+        <v>0.9190996664120361</v>
       </c>
       <c r="C221">
         <v>0.9834085666507862</v>
       </c>
       <c r="D221">
-        <v>1.046145077707578</v>
+        <v>1.046145077707579</v>
       </c>
       <c r="E221">
-        <v>0.960955123698939</v>
+        <v>0.9609551236989389</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,10 +4128,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.7948752615192938</v>
+        <v>0.794875261519294</v>
       </c>
       <c r="C222">
-        <v>0.8154921345184805</v>
+        <v>0.8154921345184803</v>
       </c>
       <c r="D222">
         <v>0.9031266139009672</v>
@@ -4179,7 +4179,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.6332175263143861</v>
+        <v>0.6332175263143862</v>
       </c>
       <c r="C225">
         <v>0.6302064566326303</v>
@@ -4196,7 +4196,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.756069891454926</v>
+        <v>0.7560698914549261</v>
       </c>
       <c r="C226">
         <v>0.7467899877008191</v>
@@ -4205,7 +4205,7 @@
         <v>0.8470843041686434</v>
       </c>
       <c r="E226">
-        <v>0.8347137954849051</v>
+        <v>0.8347137954849052</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,7 +4213,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.6893403401649583</v>
+        <v>0.6893403401649584</v>
       </c>
       <c r="C227">
         <v>0.6302840941414006</v>
@@ -4233,10 +4233,10 @@
         <v>0.8906599948237316</v>
       </c>
       <c r="C228">
-        <v>0.860642302465902</v>
+        <v>0.8606423024659019</v>
       </c>
       <c r="D228">
-        <v>0.9566084764220847</v>
+        <v>0.9566084764220849</v>
       </c>
       <c r="E228">
         <v>0.9402167549286145</v>
@@ -4247,16 +4247,16 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.8568282475587627</v>
+        <v>0.856828247558763</v>
       </c>
       <c r="C229">
         <v>0.8816068239945166</v>
       </c>
       <c r="D229">
-        <v>0.9496984132399343</v>
+        <v>0.9496984132399344</v>
       </c>
       <c r="E229">
-        <v>0.9006890826224513</v>
+        <v>0.9006890826224514</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4264,10 +4264,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.7739671212352819</v>
+        <v>0.773967121235282</v>
       </c>
       <c r="C230">
-        <v>0.8180689266339323</v>
+        <v>0.8180689266339324</v>
       </c>
       <c r="D230">
         <v>0.9129873933149559</v>
@@ -4284,13 +4284,13 @@
         <v>1.032437396350639</v>
       </c>
       <c r="C231">
-        <v>1.034881442188141</v>
+        <v>1.034881442188142</v>
       </c>
       <c r="D231">
         <v>1.058357393526668</v>
       </c>
       <c r="E231">
-        <v>0.9650105542535827</v>
+        <v>0.9650105542535826</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4298,7 +4298,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.9169833417453829</v>
+        <v>0.9169833417453831</v>
       </c>
       <c r="C232">
         <v>0.9214842390722183</v>
@@ -4307,7 +4307,7 @@
         <v>0.986702305540375</v>
       </c>
       <c r="E232">
-        <v>0.9218890608789145</v>
+        <v>0.9218890608789144</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4315,7 +4315,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1.13431424214202</v>
+        <v>1.134314242142021</v>
       </c>
       <c r="C233">
         <v>1.154345278176829</v>
@@ -4324,7 +4324,7 @@
         <v>1.148854489829891</v>
       </c>
       <c r="E233">
-        <v>1.022906067060288</v>
+        <v>1.022906067060287</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,10 +4332,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.137982896052858</v>
+        <v>1.137982896052859</v>
       </c>
       <c r="C234">
-        <v>1.180293937989603</v>
+        <v>1.180293937989602</v>
       </c>
       <c r="D234">
         <v>1.153479630156209</v>
@@ -4386,10 +4386,10 @@
         <v>0.8280009182449566</v>
       </c>
       <c r="C237">
-        <v>0.7778068977936575</v>
+        <v>0.7778068977936576</v>
       </c>
       <c r="D237">
-        <v>0.8503303957487298</v>
+        <v>0.8503303957487299</v>
       </c>
       <c r="E237">
         <v>0.8295343075365299</v>
@@ -4400,10 +4400,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.7183939209662448</v>
+        <v>0.7183939209662449</v>
       </c>
       <c r="C238">
-        <v>0.6715655054941932</v>
+        <v>0.6715655054941934</v>
       </c>
       <c r="D238">
         <v>0.7362714315479235</v>
@@ -4420,7 +4420,7 @@
         <v>1.002558943350041</v>
       </c>
       <c r="C239">
-        <v>0.9572584485574838</v>
+        <v>0.9572584485574835</v>
       </c>
       <c r="D239">
         <v>1.005671625559733</v>
@@ -4434,13 +4434,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.8978897616441447</v>
+        <v>0.897889761644145</v>
       </c>
       <c r="C240">
         <v>0.8722143992426986</v>
       </c>
       <c r="D240">
-        <v>0.9350091007759577</v>
+        <v>0.9350091007759576</v>
       </c>
       <c r="E240">
         <v>0.9001203726526134</v>
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.9168708943689855</v>
+        <v>0.9168708943689857</v>
       </c>
       <c r="C241">
-        <v>0.9100465477681849</v>
+        <v>0.9100465477681852</v>
       </c>
       <c r="D241">
-        <v>0.9830009204816544</v>
+        <v>0.9830009204816545</v>
       </c>
       <c r="E241">
         <v>0.9234704120971241</v>
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.9190996664120357</v>
+        <v>0.919099666412036</v>
       </c>
       <c r="C242">
         <v>0.9834085666507862</v>
       </c>
       <c r="D242">
-        <v>1.046145077707578</v>
+        <v>1.046145077707579</v>
       </c>
       <c r="E242">
-        <v>0.9609551236989391</v>
+        <v>0.9609551236989389</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.9121849304395554</v>
+        <v>0.9121849304395555</v>
       </c>
       <c r="C243">
         <v>1.016488802320843</v>
@@ -4502,13 +4502,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.9190996664120357</v>
+        <v>0.9190996664120361</v>
       </c>
       <c r="C244">
         <v>0.9834085666507862</v>
       </c>
       <c r="D244">
-        <v>1.046145077707578</v>
+        <v>1.046145077707579</v>
       </c>
       <c r="E244">
         <v>0.9609551236989389</v>
@@ -4528,7 +4528,7 @@
         <v>1.199795781724884</v>
       </c>
       <c r="E245">
-        <v>1.059925657488541</v>
+        <v>1.05992565748854</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4539,7 +4539,7 @@
         <v>1.155696384818647</v>
       </c>
       <c r="C246">
-        <v>1.24949461330185</v>
+        <v>1.249494613301851</v>
       </c>
       <c r="D246">
         <v>1.210416299030556</v>
@@ -4556,7 +4556,7 @@
         <v>1.155696384818647</v>
       </c>
       <c r="C247">
-        <v>1.24949461330185</v>
+        <v>1.249494613301851</v>
       </c>
       <c r="D247">
         <v>1.210416299030556</v>
@@ -4593,7 +4593,7 @@
         <v>0.8960708821586918</v>
       </c>
       <c r="D249">
-        <v>0.990572500408384</v>
+        <v>0.9905725004083842</v>
       </c>
       <c r="E249">
         <v>0.9528610378619468</v>
@@ -4638,7 +4638,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1.02426213298352</v>
+        <v>1.024262132983521</v>
       </c>
       <c r="C252">
         <v>1.093721612851154</v>
@@ -4647,7 +4647,7 @@
         <v>1.107776867879002</v>
       </c>
       <c r="E252">
-        <v>0.9968141410039721</v>
+        <v>0.9968141410039723</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4658,7 +4658,7 @@
         <v>1.228591487061431</v>
       </c>
       <c r="C253">
-        <v>1.320047961028872</v>
+        <v>1.320047961028871</v>
       </c>
       <c r="D253">
         <v>1.263384889629477</v>
@@ -4692,7 +4692,7 @@
         <v>1.228591487061431</v>
       </c>
       <c r="C255">
-        <v>1.320047961028872</v>
+        <v>1.320047961028871</v>
       </c>
       <c r="D255">
         <v>1.263384889629477</v>
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.900798620840182</v>
+        <v>0.9007986208401821</v>
       </c>
       <c r="C258">
         <v>1.04852897619369</v>
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.5415828156767644</v>
+        <v>0.5415828156767645</v>
       </c>
       <c r="C260">
         <v>0.6034288292450186</v>
       </c>
       <c r="D260">
-        <v>0.7785704110083952</v>
+        <v>0.7785704110083951</v>
       </c>
       <c r="E260">
         <v>0.7940022089317109</v>
@@ -4797,7 +4797,7 @@
         <v>0.5647316768616194</v>
       </c>
       <c r="D261">
-        <v>0.784912990844459</v>
+        <v>0.7849129908444591</v>
       </c>
       <c r="E261">
         <v>0.8108705707212978</v>
@@ -4811,13 +4811,13 @@
         <v>0.538433909973082</v>
       </c>
       <c r="C262">
-        <v>0.5905465532635809</v>
+        <v>0.5905465532635807</v>
       </c>
       <c r="D262">
-        <v>0.7628582440258888</v>
+        <v>0.7628582440258885</v>
       </c>
       <c r="E262">
-        <v>0.7819171494400743</v>
+        <v>0.7819171494400741</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4842,16 +4842,16 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.6117286288089981</v>
+        <v>0.611728628808998</v>
       </c>
       <c r="C264">
-        <v>0.6811768297231503</v>
+        <v>0.6811768297231502</v>
       </c>
       <c r="D264">
         <v>0.8485395121649915</v>
       </c>
       <c r="E264">
-        <v>0.8492660559187484</v>
+        <v>0.8492660559187483</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4862,7 +4862,7 @@
         <v>0.611728628808998</v>
       </c>
       <c r="C265">
-        <v>0.6811768297231504</v>
+        <v>0.6811768297231502</v>
       </c>
       <c r="D265">
         <v>0.8485395121649913</v>
@@ -4893,16 +4893,16 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.611728628808998</v>
+        <v>0.6117286288089979</v>
       </c>
       <c r="C267">
-        <v>0.6811768297231503</v>
+        <v>0.6811768297231501</v>
       </c>
       <c r="D267">
         <v>0.8485395121649915</v>
       </c>
       <c r="E267">
-        <v>0.8492660559187484</v>
+        <v>0.8492660559187483</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4919,7 +4919,7 @@
         <v>0.784912990844459</v>
       </c>
       <c r="E268">
-        <v>0.8108705707212978</v>
+        <v>0.8108705707212976</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4933,10 +4933,10 @@
         <v>0.5647316768616194</v>
       </c>
       <c r="D269">
-        <v>0.784912990844459</v>
+        <v>0.7849129908444591</v>
       </c>
       <c r="E269">
-        <v>0.8108705707212978</v>
+        <v>0.8108705707212976</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,13 +4944,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.7261885617583269</v>
+        <v>0.726188561758327</v>
       </c>
       <c r="C270">
         <v>0.8273706058860769</v>
       </c>
       <c r="D270">
-        <v>0.9159298277801656</v>
+        <v>0.9159298277801655</v>
       </c>
       <c r="E270">
         <v>0.8759109943685623</v>
@@ -4961,16 +4961,16 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.5998578200073199</v>
+        <v>0.5998578200073198</v>
       </c>
       <c r="C271">
-        <v>0.6774057400641033</v>
+        <v>0.6774057400641035</v>
       </c>
       <c r="D271">
         <v>0.7882554829568991</v>
       </c>
       <c r="E271">
-        <v>0.7849438283082999</v>
+        <v>0.7849438283082998</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4978,16 +4978,16 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.5998578200073199</v>
+        <v>0.5998578200073198</v>
       </c>
       <c r="C272">
-        <v>0.6774057400641033</v>
+        <v>0.6774057400641034</v>
       </c>
       <c r="D272">
         <v>0.7882554829568991</v>
       </c>
       <c r="E272">
-        <v>0.7849438283083</v>
+        <v>0.7849438283082999</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -4995,10 +4995,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.7329197283394725</v>
+        <v>0.7329197283394726</v>
       </c>
       <c r="C273">
-        <v>0.8540114256502873</v>
+        <v>0.8540114256502872</v>
       </c>
       <c r="D273">
         <v>0.9514794911919009</v>
@@ -5015,7 +5015,7 @@
         <v>0.7329197283394725</v>
       </c>
       <c r="C274">
-        <v>0.8540114256502873</v>
+        <v>0.8540114256502872</v>
       </c>
       <c r="D274">
         <v>0.9514794911919008</v>
@@ -5029,16 +5029,16 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.5543608644536442</v>
+        <v>0.5543608644536443</v>
       </c>
       <c r="C275">
         <v>0.521546033939603</v>
       </c>
       <c r="D275">
-        <v>0.6413453102629675</v>
+        <v>0.6413453102629674</v>
       </c>
       <c r="E275">
-        <v>0.6838887593739347</v>
+        <v>0.6838887593739346</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5049,10 +5049,10 @@
         <v>0.5274612860971223</v>
       </c>
       <c r="C276">
-        <v>0.5394290597405053</v>
+        <v>0.5394290597405054</v>
       </c>
       <c r="D276">
-        <v>0.6629393071073123</v>
+        <v>0.6629393071073124</v>
       </c>
       <c r="E276">
         <v>0.7090132807894013</v>
@@ -5063,7 +5063,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.8345636560017087</v>
+        <v>0.834563656001709</v>
       </c>
       <c r="C277">
         <v>0.7918205303389628</v>
@@ -5083,7 +5083,7 @@
         <v>0.9403426633133213</v>
       </c>
       <c r="C278">
-        <v>0.9648849178890504</v>
+        <v>0.9648849178890503</v>
       </c>
       <c r="D278">
         <v>1.066080754067381</v>
@@ -5100,13 +5100,13 @@
         <v>0.8698166374795585</v>
       </c>
       <c r="C279">
-        <v>0.8930579689381708</v>
+        <v>0.8930579689381707</v>
       </c>
       <c r="D279">
         <v>1.005819715140089</v>
       </c>
       <c r="E279">
-        <v>0.9635520089812939</v>
+        <v>0.9635520089812938</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5117,13 +5117,13 @@
         <v>0.8698166374795586</v>
       </c>
       <c r="C280">
-        <v>0.8930579689381708</v>
+        <v>0.8930579689381707</v>
       </c>
       <c r="D280">
         <v>1.005819715140089</v>
       </c>
       <c r="E280">
-        <v>0.9635520089812939</v>
+        <v>0.9635520089812938</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5140,7 +5140,7 @@
         <v>0.7198286513101561</v>
       </c>
       <c r="E281">
-        <v>0.7650359990173506</v>
+        <v>0.7650359990173505</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.5327291306613919</v>
+        <v>0.532729130661392</v>
       </c>
       <c r="C282">
         <v>0.5345885395506631</v>
@@ -5182,13 +5182,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.5327291306613919</v>
+        <v>0.532729130661392</v>
       </c>
       <c r="C284">
         <v>0.5345885395506631</v>
       </c>
       <c r="D284">
-        <v>0.6621634707232849</v>
+        <v>0.6621634707232847</v>
       </c>
       <c r="E284">
         <v>0.7095576705921637</v>
@@ -5202,7 +5202,7 @@
         <v>0.5274612860971223</v>
       </c>
       <c r="C285">
-        <v>0.5394290597405053</v>
+        <v>0.5394290597405054</v>
       </c>
       <c r="D285">
         <v>0.6629393071073123</v>
@@ -5219,7 +5219,7 @@
         <v>0.8698166374795585</v>
       </c>
       <c r="C286">
-        <v>0.8930579689381708</v>
+        <v>0.8930579689381707</v>
       </c>
       <c r="D286">
         <v>1.005819715140089</v>
@@ -5250,10 +5250,10 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.8276009483417326</v>
+        <v>0.8276009483417327</v>
       </c>
       <c r="C288">
-        <v>0.9604981931122824</v>
+        <v>0.9604981931122822</v>
       </c>
       <c r="D288">
         <v>1.043486957929882</v>
@@ -5284,7 +5284,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.9970721529126185</v>
+        <v>0.9970721529126186</v>
       </c>
       <c r="C290">
         <v>1.07903279425481</v>
@@ -5318,7 +5318,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.8331988129576118</v>
+        <v>0.833198812957612</v>
       </c>
       <c r="C292">
         <v>0.985217197833228</v>
@@ -5338,7 +5338,7 @@
         <v>0.8507646731157403</v>
       </c>
       <c r="C293">
-        <v>0.9951231862976674</v>
+        <v>0.9951231862976673</v>
       </c>
       <c r="D293">
         <v>1.058957615195824</v>
@@ -5352,7 +5352,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.8808557969656424</v>
+        <v>0.8808557969656425</v>
       </c>
       <c r="C294">
         <v>1.027961713250864</v>
@@ -5375,10 +5375,10 @@
         <v>0.7166039252101772</v>
       </c>
       <c r="D295">
-        <v>0.8101733914294214</v>
+        <v>0.8101733914294212</v>
       </c>
       <c r="E295">
-        <v>0.8017453662377821</v>
+        <v>0.801745366237782</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5403,16 +5403,16 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.8374631922964386</v>
+        <v>0.8374631922964387</v>
       </c>
       <c r="C297">
         <v>0.9358248241855709</v>
       </c>
       <c r="D297">
-        <v>0.9999696635778813</v>
+        <v>0.9999696635778812</v>
       </c>
       <c r="E297">
-        <v>0.9364426234445509</v>
+        <v>0.9364426234445508</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>0.6635332471013613</v>
       </c>
       <c r="C298">
-        <v>0.7275014536251857</v>
+        <v>0.7275014536251856</v>
       </c>
       <c r="D298">
         <v>0.8166764262283912</v>
       </c>
       <c r="E298">
-        <v>0.8090444766399294</v>
+        <v>0.8090444766399293</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5437,7 +5437,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.7791575413952377</v>
+        <v>0.7791575413952379</v>
       </c>
       <c r="C299">
         <v>0.8694818414849738</v>
@@ -5457,7 +5457,7 @@
         <v>0.6512876870898603</v>
       </c>
       <c r="C300">
-        <v>0.7166039252101772</v>
+        <v>0.7166039252101771</v>
       </c>
       <c r="D300">
         <v>0.8101733914294214</v>
@@ -5477,7 +5477,7 @@
         <v>0.9091504005991533</v>
       </c>
       <c r="D301">
-        <v>0.9771459789318392</v>
+        <v>0.977145978931839</v>
       </c>
       <c r="E301">
         <v>0.9212415992381781</v>
@@ -5525,10 +5525,10 @@
         <v>0.7370163896310717</v>
       </c>
       <c r="C304">
-        <v>0.8116321019342077</v>
+        <v>0.8116321019342075</v>
       </c>
       <c r="D304">
-        <v>0.8965745436269699</v>
+        <v>0.8965745436269698</v>
       </c>
       <c r="E304">
         <v>0.860723726193799</v>
@@ -5539,10 +5539,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.7370163896310717</v>
+        <v>0.7370163896310716</v>
       </c>
       <c r="C305">
-        <v>0.8116321019342077</v>
+        <v>0.8116321019342074</v>
       </c>
       <c r="D305">
         <v>0.8965745436269699</v>
@@ -5559,10 +5559,10 @@
         <v>0.6572411374499121</v>
       </c>
       <c r="C306">
-        <v>0.7356756831663996</v>
+        <v>0.7356756831663998</v>
       </c>
       <c r="D306">
-        <v>0.8349721075279833</v>
+        <v>0.834972107527983</v>
       </c>
       <c r="E306">
         <v>0.8169159760825637</v>
@@ -5579,7 +5579,7 @@
         <v>0.8116321019342077</v>
       </c>
       <c r="D307">
-        <v>0.8965745436269699</v>
+        <v>0.8965745436269698</v>
       </c>
       <c r="E307">
         <v>0.8607237261937991</v>
@@ -5599,7 +5599,7 @@
         <v>0.9744304911661393</v>
       </c>
       <c r="E308">
-        <v>0.9261723686274895</v>
+        <v>0.9261723686274898</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5613,7 +5613,7 @@
         <v>0.7356756831663994</v>
       </c>
       <c r="D309">
-        <v>0.8349721075279833</v>
+        <v>0.8349721075279832</v>
       </c>
       <c r="E309">
         <v>0.8169159760825637</v>
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.9303635566923021</v>
+        <v>0.9303635566923022</v>
       </c>
       <c r="C310">
         <v>1.017061424602441</v>
@@ -5633,7 +5633,7 @@
         <v>1.040078079137623</v>
       </c>
       <c r="E310">
-        <v>0.9670608475637803</v>
+        <v>0.9670608475637805</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5647,10 +5647,10 @@
         <v>0.638371446541151</v>
       </c>
       <c r="D311">
-        <v>0.7630357328194174</v>
+        <v>0.7630357328194173</v>
       </c>
       <c r="E311">
-        <v>0.7812135869219143</v>
+        <v>0.7812135869219142</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5664,10 +5664,10 @@
         <v>0.4814583982942272</v>
       </c>
       <c r="D312">
-        <v>0.5613236997181802</v>
+        <v>0.5613236997181801</v>
       </c>
       <c r="E312">
-        <v>0.5752302050518081</v>
+        <v>0.575230205051808</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5681,10 +5681,10 @@
         <v>0.6383714465411507</v>
       </c>
       <c r="D313">
-        <v>0.7630357328194174</v>
+        <v>0.7630357328194173</v>
       </c>
       <c r="E313">
-        <v>0.7812135869219144</v>
+        <v>0.7812135869219142</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5698,10 +5698,10 @@
         <v>0.6383714465411506</v>
       </c>
       <c r="D314">
-        <v>0.7630357328194174</v>
+        <v>0.7630357328194173</v>
       </c>
       <c r="E314">
-        <v>0.7812135869219143</v>
+        <v>0.7812135869219142</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5718,7 +5718,7 @@
         <v>1.101990186728489</v>
       </c>
       <c r="E315">
-        <v>0.9836901617996068</v>
+        <v>0.9836901617996067</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>1.07823156838671</v>
       </c>
       <c r="E316">
-        <v>0.9718328311584176</v>
+        <v>0.9718328311584175</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,7 +5743,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.9977197924304283</v>
+        <v>0.9977197924304285</v>
       </c>
       <c r="C317">
         <v>1.043010966529433</v>
@@ -5780,13 +5780,13 @@
         <v>0.8332642177520201</v>
       </c>
       <c r="C319">
-        <v>0.9189846077455315</v>
+        <v>0.9189846077455316</v>
       </c>
       <c r="D319">
-        <v>0.952916022191258</v>
+        <v>0.9529160221912579</v>
       </c>
       <c r="E319">
-        <v>0.8907691898868271</v>
+        <v>0.890769189886827</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.9103587422752152</v>
+        <v>0.9103587422752153</v>
       </c>
       <c r="C320">
         <v>0.9582024839748753</v>
@@ -5803,7 +5803,7 @@
         <v>0.9777464354001171</v>
       </c>
       <c r="E320">
-        <v>0.9108808007733019</v>
+        <v>0.9108808007733016</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5814,13 +5814,13 @@
         <v>0.944039174281099</v>
       </c>
       <c r="C321">
-        <v>0.993555107590259</v>
+        <v>0.9935551075902588</v>
       </c>
       <c r="D321">
         <v>1.007176989781067</v>
       </c>
       <c r="E321">
-        <v>0.931803819872167</v>
+        <v>0.9318038198721669</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5837,7 +5837,7 @@
         <v>1.229059269495375</v>
       </c>
       <c r="E322">
-        <v>1.060009030143416</v>
+        <v>1.060009030143417</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5848,10 +5848,10 @@
         <v>0.8946814253528055</v>
       </c>
       <c r="C323">
-        <v>0.9394718057474241</v>
+        <v>0.9394718057474238</v>
       </c>
       <c r="D323">
-        <v>0.9657429784508165</v>
+        <v>0.9657429784508164</v>
       </c>
       <c r="E323">
         <v>0.9027093724919359</v>
@@ -5862,7 +5862,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.8946814253528054</v>
+        <v>0.8946814253528055</v>
       </c>
       <c r="C324">
         <v>0.9394718057474239</v>
@@ -5871,7 +5871,7 @@
         <v>0.9657429784508164</v>
       </c>
       <c r="E324">
-        <v>0.9027093724919362</v>
+        <v>0.9027093724919359</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.8946814253528054</v>
+        <v>0.8946814253528057</v>
       </c>
       <c r="C325">
         <v>0.9394718057474241</v>
       </c>
       <c r="D325">
-        <v>0.9657429784508165</v>
+        <v>0.9657429784508164</v>
       </c>
       <c r="E325">
-        <v>0.9027093724919362</v>
+        <v>0.9027093724919359</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5905,7 +5905,7 @@
         <v>1.023006974084292</v>
       </c>
       <c r="E326">
-        <v>0.9405979576174349</v>
+        <v>0.940597957617435</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5981,13 +5981,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.8701758472719794</v>
+        <v>0.8701758472719796</v>
       </c>
       <c r="C331">
         <v>1.000874163314764</v>
       </c>
       <c r="D331">
-        <v>1.028843281733235</v>
+        <v>1.028843281733234</v>
       </c>
       <c r="E331">
         <v>0.9363868453921305</v>
@@ -6035,7 +6035,7 @@
         <v>1.323668782242026</v>
       </c>
       <c r="C334">
-        <v>1.436780567267582</v>
+        <v>1.436780567267581</v>
       </c>
       <c r="D334">
         <v>1.306313826000049</v>
@@ -6055,7 +6055,7 @@
         <v>1.365346256453092</v>
       </c>
       <c r="D335">
-        <v>1.278167392055989</v>
+        <v>1.278167392055988</v>
       </c>
       <c r="E335">
         <v>1.103321436167291</v>
@@ -6092,7 +6092,7 @@
         <v>0.5890749364635472</v>
       </c>
       <c r="E337">
-        <v>0.6130301314918528</v>
+        <v>0.6130301314918529</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.5435411656629172</v>
+        <v>0.5435411656629173</v>
       </c>
       <c r="C340">
         <v>0.5257779811008522</v>
@@ -6174,7 +6174,7 @@
         <v>0.5964893658140938</v>
       </c>
       <c r="D342">
-        <v>0.7123152093190427</v>
+        <v>0.7123152093190426</v>
       </c>
       <c r="E342">
         <v>0.7353384604279998</v>
@@ -6185,7 +6185,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.6166706669158515</v>
+        <v>0.6166706669158516</v>
       </c>
       <c r="C343">
         <v>0.5964893658140938</v>
@@ -6194,7 +6194,7 @@
         <v>0.7123152093190426</v>
       </c>
       <c r="E343">
-        <v>0.7353384604279997</v>
+        <v>0.7353384604279998</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,16 +6202,16 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.5435411656629172</v>
+        <v>0.5435411656629173</v>
       </c>
       <c r="C344">
         <v>0.5257779811008522</v>
       </c>
       <c r="D344">
-        <v>0.6348993174083742</v>
+        <v>0.6348993174083741</v>
       </c>
       <c r="E344">
-        <v>0.664174251523541</v>
+        <v>0.6641742515235409</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6225,10 +6225,10 @@
         <v>0.4246666398242904</v>
       </c>
       <c r="D345">
-        <v>0.5522764275634373</v>
+        <v>0.5522764275634374</v>
       </c>
       <c r="E345">
-        <v>0.5900861660958386</v>
+        <v>0.5900861660958385</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6239,13 +6239,13 @@
         <v>0.4180687479204553</v>
       </c>
       <c r="C346">
-        <v>0.4246666398242904</v>
+        <v>0.4246666398242905</v>
       </c>
       <c r="D346">
-        <v>0.5522764275634373</v>
+        <v>0.5522764275634374</v>
       </c>
       <c r="E346">
-        <v>0.5900861660958385</v>
+        <v>0.5900861660958384</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6256,13 +6256,13 @@
         <v>0.4180687479204553</v>
       </c>
       <c r="C347">
-        <v>0.4246666398242903</v>
+        <v>0.4246666398242904</v>
       </c>
       <c r="D347">
-        <v>0.5522764275634373</v>
+        <v>0.5522764275634374</v>
       </c>
       <c r="E347">
-        <v>0.5900861660958386</v>
+        <v>0.5900861660958385</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6313,7 +6313,7 @@
         <v>0.6782109510929588</v>
       </c>
       <c r="E350">
-        <v>0.6927291374614358</v>
+        <v>0.6927291374614357</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6324,13 +6324,13 @@
         <v>0.3902554474000535</v>
       </c>
       <c r="C351">
-        <v>0.4031135002666146</v>
+        <v>0.4031135002666145</v>
       </c>
       <c r="D351">
         <v>0.520784002656998</v>
       </c>
       <c r="E351">
-        <v>0.5435096978362923</v>
+        <v>0.5435096978362924</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6341,13 +6341,13 @@
         <v>0.3902554474000535</v>
       </c>
       <c r="C352">
-        <v>0.4031135002666146</v>
+        <v>0.4031135002666145</v>
       </c>
       <c r="D352">
-        <v>0.520784002656998</v>
+        <v>0.5207840026569979</v>
       </c>
       <c r="E352">
-        <v>0.5435096978362923</v>
+        <v>0.5435096978362924</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,16 +6355,16 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.8417827104346643</v>
+        <v>0.8417827104346647</v>
       </c>
       <c r="C353">
         <v>0.7564504810798218</v>
       </c>
       <c r="D353">
-        <v>0.8259652114938484</v>
+        <v>0.8259652114938483</v>
       </c>
       <c r="E353">
-        <v>0.8336706470083546</v>
+        <v>0.8336706470083545</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.7355775044268922</v>
+        <v>0.7355775044268923</v>
       </c>
       <c r="C354">
         <v>0.6612093452188619</v>
@@ -6381,7 +6381,7 @@
         <v>0.7296503206774093</v>
       </c>
       <c r="E354">
-        <v>0.7433939784736473</v>
+        <v>0.7433939784736474</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,13 +6389,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>0.874453319367587</v>
+        <v>0.8744533193675871</v>
       </c>
       <c r="C355">
         <v>0.7827021975450614</v>
       </c>
       <c r="D355">
-        <v>0.854193642051555</v>
+        <v>0.8541936420515549</v>
       </c>
       <c r="E355">
         <v>0.8456994452333882</v>
@@ -6406,7 +6406,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.7125974493624162</v>
+        <v>0.7125974493624163</v>
       </c>
       <c r="C356">
         <v>0.6315057026056129</v>
@@ -6415,7 +6415,7 @@
         <v>0.6783793458334572</v>
       </c>
       <c r="E356">
-        <v>0.6944570902094163</v>
+        <v>0.6944570902094164</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6432,7 +6432,7 @@
         <v>0.6783793458334572</v>
       </c>
       <c r="E357">
-        <v>0.6944570902094163</v>
+        <v>0.6944570902094164</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6440,16 +6440,16 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.7125974493624162</v>
+        <v>0.7125974493624163</v>
       </c>
       <c r="C358">
-        <v>0.6315057026056131</v>
+        <v>0.631505702605613</v>
       </c>
       <c r="D358">
-        <v>0.6783793458334572</v>
+        <v>0.678379345833457</v>
       </c>
       <c r="E358">
-        <v>0.6944570902094162</v>
+        <v>0.6944570902094163</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6460,7 +6460,7 @@
         <v>0.4057648929965399</v>
       </c>
       <c r="C359">
-        <v>0.4315143266573647</v>
+        <v>0.4315143266573648</v>
       </c>
       <c r="D359">
         <v>0.5430570687855001</v>
@@ -6477,13 +6477,13 @@
         <v>0.4057648929965398</v>
       </c>
       <c r="C360">
-        <v>0.4315143266573647</v>
+        <v>0.4315143266573648</v>
       </c>
       <c r="D360">
-        <v>0.5430570687855</v>
+        <v>0.5430570687855001</v>
       </c>
       <c r="E360">
-        <v>0.5655719735991765</v>
+        <v>0.5655719735991767</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6528,7 +6528,7 @@
         <v>0.6747363527499071</v>
       </c>
       <c r="C363">
-        <v>0.8636835070367526</v>
+        <v>0.8636835070367525</v>
       </c>
       <c r="D363">
         <v>1.028793277550101</v>
@@ -6542,7 +6542,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.9901087528816104</v>
+        <v>0.9901087528816103</v>
       </c>
       <c r="C364">
         <v>1.058743236468217</v>
@@ -6559,7 +6559,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.9901087528816105</v>
+        <v>0.9901087528816104</v>
       </c>
       <c r="C365">
         <v>1.058743236468217</v>
@@ -6582,7 +6582,7 @@
         <v>0.8953870130929233</v>
       </c>
       <c r="D366">
-        <v>1.003886735239055</v>
+        <v>1.003886735239054</v>
       </c>
       <c r="E366">
         <v>0.9604757924833153</v>
@@ -6633,7 +6633,7 @@
         <v>0.8953870130929233</v>
       </c>
       <c r="D369">
-        <v>1.003886735239055</v>
+        <v>1.003886735239054</v>
       </c>
       <c r="E369">
         <v>0.9604757924833153</v>
@@ -6644,7 +6644,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.6636172437716056</v>
+        <v>0.6636172437716055</v>
       </c>
       <c r="C370">
         <v>0.7703815683200395</v>
@@ -6653,7 +6653,7 @@
         <v>0.9289822855096895</v>
       </c>
       <c r="E370">
-        <v>0.9176527114053591</v>
+        <v>0.9176527114053592</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6661,7 +6661,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.6636172437716054</v>
+        <v>0.6636172437716055</v>
       </c>
       <c r="C371">
         <v>0.7703815683200395</v>
@@ -6678,7 +6678,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.6636172437716056</v>
+        <v>0.6636172437716055</v>
       </c>
       <c r="C372">
         <v>0.7703815683200395</v>
@@ -6695,7 +6695,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.7708617411978564</v>
+        <v>0.7708617411978566</v>
       </c>
       <c r="C373">
         <v>0.8205337860479989</v>
@@ -6712,13 +6712,13 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.626846461943694</v>
+        <v>0.6268464619436941</v>
       </c>
       <c r="C374">
         <v>0.6480177056358244</v>
       </c>
       <c r="D374">
-        <v>0.794556531255788</v>
+        <v>0.7945565312557877</v>
       </c>
       <c r="E374">
         <v>0.8179292743095048</v>
@@ -6729,7 +6729,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.7946289582981607</v>
+        <v>0.7946289582981609</v>
       </c>
       <c r="C375">
         <v>0.8477714854668021</v>
@@ -6755,7 +6755,7 @@
         <v>0.8395304310251428</v>
       </c>
       <c r="E376">
-        <v>0.8418461865687359</v>
+        <v>0.8418461865687357</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,13 +6763,13 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>0.6727032074077326</v>
+        <v>0.6727032074077327</v>
       </c>
       <c r="C377">
         <v>0.689993067372266</v>
       </c>
       <c r="D377">
-        <v>0.839530431025143</v>
+        <v>0.8395304310251428</v>
       </c>
       <c r="E377">
         <v>0.8418461865687357</v>
@@ -6780,16 +6780,16 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.9511326902657922</v>
+        <v>0.9511326902657923</v>
       </c>
       <c r="C378">
-        <v>0.9649817751972303</v>
+        <v>0.9649817751972305</v>
       </c>
       <c r="D378">
         <v>1.016382986860157</v>
       </c>
       <c r="E378">
-        <v>0.9510659856023254</v>
+        <v>0.9510659856023251</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,16 +6797,16 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.9511326902657922</v>
+        <v>0.9511326902657923</v>
       </c>
       <c r="C379">
-        <v>0.9649817751972304</v>
+        <v>0.9649817751972306</v>
       </c>
       <c r="D379">
         <v>1.016382986860157</v>
       </c>
       <c r="E379">
-        <v>0.9510659856023254</v>
+        <v>0.9510659856023252</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6814,16 +6814,16 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.9671106175363798</v>
+        <v>0.9671106175363799</v>
       </c>
       <c r="C380">
-        <v>0.9933444736387724</v>
+        <v>0.9933444736387725</v>
       </c>
       <c r="D380">
         <v>1.048461095604944</v>
       </c>
       <c r="E380">
-        <v>0.9621394729107908</v>
+        <v>0.9621394729107905</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6831,16 +6831,16 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.9671106175363798</v>
+        <v>0.9671106175363799</v>
       </c>
       <c r="C381">
-        <v>0.9933444736387723</v>
+        <v>0.9933444736387725</v>
       </c>
       <c r="D381">
         <v>1.048461095604944</v>
       </c>
       <c r="E381">
-        <v>0.9621394729107908</v>
+        <v>0.9621394729107905</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.8424210985417376</v>
+        <v>0.8424210985417377</v>
       </c>
       <c r="C382">
         <v>0.8707771821499894</v>
@@ -6868,7 +6868,7 @@
         <v>0.8641437117490114</v>
       </c>
       <c r="C383">
-        <v>0.9827213299194247</v>
+        <v>0.9827213299194248</v>
       </c>
       <c r="D383">
         <v>1.07052253493207</v>
@@ -6882,7 +6882,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.7336525672805851</v>
+        <v>0.7336525672805853</v>
       </c>
       <c r="C384">
         <v>0.8450708504771741</v>
@@ -6922,10 +6922,10 @@
         <v>0.7231415082628133</v>
       </c>
       <c r="D386">
-        <v>0.9078230068326115</v>
+        <v>0.9078230068326114</v>
       </c>
       <c r="E386">
-        <v>0.8904000719509237</v>
+        <v>0.8904000719509236</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6939,7 +6939,7 @@
         <v>0.7231415082628133</v>
       </c>
       <c r="D387">
-        <v>0.9078230068326115</v>
+        <v>0.9078230068326113</v>
       </c>
       <c r="E387">
         <v>0.8904000719509237</v>
@@ -6953,13 +6953,13 @@
         <v>0.7496011376213815</v>
       </c>
       <c r="C388">
-        <v>0.5711243016575265</v>
+        <v>0.5711243016575266</v>
       </c>
       <c r="D388">
         <v>0.5912006119363042</v>
       </c>
       <c r="E388">
-        <v>0.6475961517627585</v>
+        <v>0.6475961517627586</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6973,7 +6973,7 @@
         <v>0.5167774014157949</v>
       </c>
       <c r="D389">
-        <v>0.5773334662488028</v>
+        <v>0.5773334662488027</v>
       </c>
       <c r="E389">
         <v>0.6445057407224494</v>
@@ -6990,7 +6990,7 @@
         <v>0.5167774014157949</v>
       </c>
       <c r="D390">
-        <v>0.5773334662488027</v>
+        <v>0.5773334662488026</v>
       </c>
       <c r="E390">
         <v>0.6445057407224494</v>
@@ -7004,13 +7004,13 @@
         <v>0.7496011376213815</v>
       </c>
       <c r="C391">
-        <v>0.5711243016575265</v>
+        <v>0.5711243016575266</v>
       </c>
       <c r="D391">
         <v>0.5912006119363042</v>
       </c>
       <c r="E391">
-        <v>0.6475961517627586</v>
+        <v>0.6475961517627588</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.6280291271741166</v>
+        <v>0.6280291271741165</v>
       </c>
       <c r="C392">
         <v>0.516777401415795</v>
@@ -7035,16 +7035,16 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.5672099625515715</v>
+        <v>0.5672099625515714</v>
       </c>
       <c r="C393">
-        <v>0.4453390864922244</v>
+        <v>0.4453390864922245</v>
       </c>
       <c r="D393">
         <v>0.4533496424701145</v>
       </c>
       <c r="E393">
-        <v>0.4911299589428433</v>
+        <v>0.4911299589428432</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7052,16 +7052,16 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.5672099625515715</v>
+        <v>0.5672099625515714</v>
       </c>
       <c r="C394">
-        <v>0.4453390864922244</v>
+        <v>0.4453390864922245</v>
       </c>
       <c r="D394">
         <v>0.4533496424701145</v>
       </c>
       <c r="E394">
-        <v>0.4911299589428433</v>
+        <v>0.4911299589428432</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7075,7 +7075,7 @@
         <v>0.4534529895731051</v>
       </c>
       <c r="D395">
-        <v>0.4659568174692031</v>
+        <v>0.465956817469203</v>
       </c>
       <c r="E395">
         <v>0.5000755572559065</v>
@@ -7086,13 +7086,13 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.5571487906409157</v>
+        <v>0.5571487906409155</v>
       </c>
       <c r="C396">
         <v>0.4534529895731051</v>
       </c>
       <c r="D396">
-        <v>0.4659568174692031</v>
+        <v>0.465956817469203</v>
       </c>
       <c r="E396">
         <v>0.5000755572559066</v>
@@ -7109,10 +7109,10 @@
         <v>0.4986683641916841</v>
       </c>
       <c r="D397">
-        <v>0.5127024891012956</v>
+        <v>0.5127024891012955</v>
       </c>
       <c r="E397">
-        <v>0.5513809800729663</v>
+        <v>0.5513809800729662</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.63900165861231</v>
+        <v>0.6390016586123098</v>
       </c>
       <c r="C398">
         <v>0.4986683641916841</v>
       </c>
       <c r="D398">
-        <v>0.5127024891012956</v>
+        <v>0.5127024891012955</v>
       </c>
       <c r="E398">
-        <v>0.5513809800729663</v>
+        <v>0.5513809800729662</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,10 +7137,10 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.5420271490837992</v>
+        <v>0.5420271490837993</v>
       </c>
       <c r="C399">
-        <v>0.4195956017036604</v>
+        <v>0.4195956017036603</v>
       </c>
       <c r="D399">
         <v>0.5662156505366285</v>
@@ -7160,10 +7160,10 @@
         <v>0.4189983070407572</v>
       </c>
       <c r="D400">
-        <v>0.5795125892721403</v>
+        <v>0.5795125892721402</v>
       </c>
       <c r="E400">
-        <v>0.688826173537845</v>
+        <v>0.6888261735378448</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,13 +7171,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>0.5514472360305682</v>
+        <v>0.5514472360305683</v>
       </c>
       <c r="C401">
-        <v>0.4339006285073648</v>
+        <v>0.4339006285073647</v>
       </c>
       <c r="D401">
-        <v>0.5881903343208403</v>
+        <v>0.5881903343208404</v>
       </c>
       <c r="E401">
         <v>0.6916033445389549</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.5331059383917959</v>
+        <v>0.533105938391796</v>
       </c>
       <c r="C403">
         <v>0.4189983070407572</v>
       </c>
       <c r="D403">
-        <v>0.5795125892721403</v>
+        <v>0.5795125892721401</v>
       </c>
       <c r="E403">
-        <v>0.688826173537845</v>
+        <v>0.6888261735378449</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7225,7 +7225,7 @@
         <v>0.5006004620363327</v>
       </c>
       <c r="C404">
-        <v>0.3761386886239015</v>
+        <v>0.3761386886239014</v>
       </c>
       <c r="D404">
         <v>0.5188304554598265</v>
@@ -7242,7 +7242,7 @@
         <v>0.5006004620363327</v>
       </c>
       <c r="C405">
-        <v>0.3761386886239015</v>
+        <v>0.3761386886239014</v>
       </c>
       <c r="D405">
         <v>0.5188304554598265</v>
@@ -7256,10 +7256,10 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.5006004620363326</v>
+        <v>0.5006004620363327</v>
       </c>
       <c r="C406">
-        <v>0.3761386886239015</v>
+        <v>0.3761386886239014</v>
       </c>
       <c r="D406">
         <v>0.5188304554598265</v>
@@ -7273,7 +7273,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>0.4676865856213514</v>
+        <v>0.4676865856213515</v>
       </c>
       <c r="C407">
         <v>0.3419912710259916</v>
@@ -7290,7 +7290,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.4676865856213514</v>
+        <v>0.4676865856213515</v>
       </c>
       <c r="C408">
         <v>0.3419912710259916</v>
@@ -7310,7 +7310,7 @@
         <v>0.4676865856213515</v>
       </c>
       <c r="C409">
-        <v>0.3419912710259916</v>
+        <v>0.3419912710259915</v>
       </c>
       <c r="D409">
         <v>0.4753722639410091</v>
@@ -7327,10 +7327,10 @@
         <v>0.8196980747746045</v>
       </c>
       <c r="C410">
-        <v>0.782890822331973</v>
+        <v>0.7828908223319728</v>
       </c>
       <c r="D410">
-        <v>0.8970155818524558</v>
+        <v>0.897015581852456</v>
       </c>
       <c r="E410">
         <v>0.9151663737568188</v>
@@ -7347,10 +7347,10 @@
         <v>0.6936403433769092</v>
       </c>
       <c r="D411">
-        <v>0.8372245442019688</v>
+        <v>0.8372245442019687</v>
       </c>
       <c r="E411">
-        <v>0.8734580792287718</v>
+        <v>0.8734580792287717</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7364,7 +7364,7 @@
         <v>0.6936403433769091</v>
       </c>
       <c r="D412">
-        <v>0.8372245442019687</v>
+        <v>0.8372245442019686</v>
       </c>
       <c r="E412">
         <v>0.8734580792287717</v>
@@ -7381,7 +7381,7 @@
         <v>0.6546237978886259</v>
       </c>
       <c r="D413">
-        <v>0.8139658431380968</v>
+        <v>0.8139658431380967</v>
       </c>
       <c r="E413">
         <v>0.8484507725038012</v>
@@ -7395,10 +7395,10 @@
         <v>0.844003618093303</v>
       </c>
       <c r="C414">
-        <v>0.8146507256814762</v>
+        <v>0.8146507256814759</v>
       </c>
       <c r="D414">
-        <v>0.9306310851179186</v>
+        <v>0.9306310851179188</v>
       </c>
       <c r="E414">
         <v>0.9278275884691093</v>
@@ -7415,10 +7415,10 @@
         <v>0.6898154057281857</v>
       </c>
       <c r="D415">
-        <v>0.8490693762821391</v>
+        <v>0.849069376282139</v>
       </c>
       <c r="E415">
-        <v>0.8825051135274203</v>
+        <v>0.8825051135274204</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,7 +7429,7 @@
         <v>0.7132411890919835</v>
       </c>
       <c r="C416">
-        <v>0.6898154057281857</v>
+        <v>0.6898154057281856</v>
       </c>
       <c r="D416">
         <v>0.849069376282139</v>
@@ -7446,13 +7446,13 @@
         <v>0.6123593373603324</v>
       </c>
       <c r="C417">
-        <v>0.5368204500887468</v>
+        <v>0.5368204500887467</v>
       </c>
       <c r="D417">
         <v>0.7024552195773707</v>
       </c>
       <c r="E417">
-        <v>0.778985482339618</v>
+        <v>0.7789854823396177</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,7 +7463,7 @@
         <v>0.6123593373603324</v>
       </c>
       <c r="C418">
-        <v>0.5368204500887468</v>
+        <v>0.5368204500887467</v>
       </c>
       <c r="D418">
         <v>0.7024552195773707</v>
@@ -7477,7 +7477,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="C419">
         <v>0.7139698727718531</v>
@@ -7486,7 +7486,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="E419">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7503,7 +7503,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="E420">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7511,7 +7511,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.6403746397834135</v>
+        <v>0.6403746397834136</v>
       </c>
       <c r="C421">
         <v>0.5835446099942301</v>
@@ -7520,7 +7520,7 @@
         <v>0.6575126112547849</v>
       </c>
       <c r="E421">
-        <v>0.6856162130505797</v>
+        <v>0.6856162130505793</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7537,7 +7537,7 @@
         <v>0.6575126112547849</v>
       </c>
       <c r="E422">
-        <v>0.6856162130505796</v>
+        <v>0.6856162130505794</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7545,7 +7545,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="C423">
         <v>0.713969872771853</v>
@@ -7554,7 +7554,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="E423">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,7 +7562,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="C424">
         <v>0.7139698727718528</v>
@@ -7571,7 +7571,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="E424">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7588,7 +7588,7 @@
         <v>0.6575126112547849</v>
       </c>
       <c r="E425">
-        <v>0.6856162130505795</v>
+        <v>0.6856162130505794</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7613,16 +7613,16 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.7816370757978086</v>
+        <v>0.7816370757978085</v>
       </c>
       <c r="C427">
         <v>0.7389928423856846</v>
       </c>
       <c r="D427">
-        <v>0.8072844341972359</v>
+        <v>0.8072844341972358</v>
       </c>
       <c r="E427">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7630,16 +7630,16 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>0.7816370757978083</v>
+        <v>0.7816370757978084</v>
       </c>
       <c r="C428">
         <v>0.7389928423856846</v>
       </c>
       <c r="D428">
-        <v>0.8072844341972359</v>
+        <v>0.8072844341972358</v>
       </c>
       <c r="E428">
-        <v>0.8087948035898053</v>
+        <v>0.8087948035898052</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7647,16 +7647,16 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779071</v>
       </c>
       <c r="C429">
         <v>0.713969872771853</v>
       </c>
       <c r="D429">
-        <v>0.7797058111029829</v>
+        <v>0.7797058111029826</v>
       </c>
       <c r="E429">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7664,7 +7664,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="C430">
         <v>0.7139698727718531</v>
@@ -7673,7 +7673,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="E430">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7690,7 +7690,7 @@
         <v>0.6575126112547848</v>
       </c>
       <c r="E431">
-        <v>0.6856162130505795</v>
+        <v>0.6856162130505793</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="E432">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7721,10 +7721,10 @@
         <v>0.7139698727718529</v>
       </c>
       <c r="D433">
-        <v>0.7797058111029829</v>
+        <v>0.7797058111029828</v>
       </c>
       <c r="E433">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,10 +7732,10 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>0.5544923112926143</v>
+        <v>0.5544923112926144</v>
       </c>
       <c r="C434">
-        <v>0.539362184793108</v>
+        <v>0.5393621847931083</v>
       </c>
       <c r="D434">
         <v>0.6368851925849054</v>
@@ -7749,16 +7749,16 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="C435">
         <v>0.713969872771853</v>
       </c>
       <c r="D435">
-        <v>0.7797058111029829</v>
+        <v>0.7797058111029828</v>
       </c>
       <c r="E435">
-        <v>0.7973219246153056</v>
+        <v>0.7973219246153055</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,13 +7766,13 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.5864673621221335</v>
+        <v>0.5864673621221336</v>
       </c>
       <c r="C436">
         <v>0.5848920923401252</v>
       </c>
       <c r="D436">
-        <v>0.6724246843969128</v>
+        <v>0.6724246843969127</v>
       </c>
       <c r="E436">
         <v>0.7027536190001591</v>
@@ -7789,10 +7789,10 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D437">
-        <v>0.5456733168673361</v>
+        <v>0.545673316867336</v>
       </c>
       <c r="E437">
-        <v>0.5852571834370461</v>
+        <v>0.585257183437046</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7806,7 +7806,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D438">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E438">
         <v>0.5852571834370462</v>
@@ -7823,10 +7823,10 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D439">
-        <v>0.5456733168673361</v>
+        <v>0.545673316867336</v>
       </c>
       <c r="E439">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7840,7 +7840,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D440">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E440">
         <v>0.5852571834370461</v>
@@ -7857,10 +7857,10 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D441">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E441">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7874,7 +7874,7 @@
         <v>0.4386400201001491</v>
       </c>
       <c r="D442">
-        <v>0.5109003219965816</v>
+        <v>0.5109003219965815</v>
       </c>
       <c r="E442">
         <v>0.5463455342707282</v>
@@ -7891,10 +7891,10 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D443">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E443">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7908,10 +7908,10 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D444">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E444">
-        <v>0.5852571834370462</v>
+        <v>0.585257183437046</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7925,7 +7925,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D445">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E445">
         <v>0.5852571834370462</v>
@@ -7942,10 +7942,10 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D446">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E446">
-        <v>0.5852571834370462</v>
+        <v>0.5852571834370461</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7959,7 +7959,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D447">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E447">
         <v>0.5852571834370462</v>
@@ -7970,10 +7970,10 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C448">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540873</v>
       </c>
       <c r="D448">
         <v>0.9086229050109691</v>
@@ -7987,7 +7987,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.7886695732751895</v>
+        <v>0.7886695732751894</v>
       </c>
       <c r="C449">
         <v>0.8344155799540875</v>
@@ -8004,10 +8004,10 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C450">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540873</v>
       </c>
       <c r="D450">
         <v>0.9086229050109691</v>
@@ -8021,10 +8021,10 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C451">
-        <v>0.8344155799540877</v>
+        <v>0.8344155799540875</v>
       </c>
       <c r="D451">
         <v>0.9086229050109691</v>
@@ -8038,10 +8038,10 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C452">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540874</v>
       </c>
       <c r="D452">
         <v>0.908622905010969</v>
@@ -8055,10 +8055,10 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C453">
-        <v>0.8344155799540877</v>
+        <v>0.8344155799540875</v>
       </c>
       <c r="D453">
         <v>0.908622905010969</v>
@@ -8081,7 +8081,7 @@
         <v>0.8540190718382612</v>
       </c>
       <c r="E454">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8095,10 +8095,10 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="D455">
-        <v>0.8540190718382612</v>
+        <v>0.8540190718382611</v>
       </c>
       <c r="E455">
-        <v>0.8453359861355748</v>
+        <v>0.8453359861355747</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8112,10 +8112,10 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="D456">
-        <v>0.8540190718382612</v>
+        <v>0.8540190718382611</v>
       </c>
       <c r="E456">
-        <v>0.8453359861355748</v>
+        <v>0.8453359861355747</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8132,7 +8132,7 @@
         <v>0.8540190718382612</v>
       </c>
       <c r="E457">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8149,7 +8149,7 @@
         <v>0.8540190718382612</v>
       </c>
       <c r="E458">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8160,13 +8160,13 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="C459">
-        <v>0.7576234806140982</v>
+        <v>0.7576234806140983</v>
       </c>
       <c r="D459">
         <v>0.8540190718382612</v>
       </c>
       <c r="E459">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8180,10 +8180,10 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="D460">
-        <v>0.8540190718382612</v>
+        <v>0.8540190718382611</v>
       </c>
       <c r="E460">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355747</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8200,7 +8200,7 @@
         <v>0.854019071838261</v>
       </c>
       <c r="E461">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8217,7 +8217,7 @@
         <v>0.8540190718382612</v>
       </c>
       <c r="E462">
-        <v>0.8453359861355749</v>
+        <v>0.8453359861355748</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8234,7 +8234,7 @@
         <v>0.8072844341972359</v>
       </c>
       <c r="E463">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8242,16 +8242,16 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>0.7816370757978085</v>
+        <v>0.7816370757978084</v>
       </c>
       <c r="C464">
         <v>0.7389928423856846</v>
       </c>
       <c r="D464">
-        <v>0.8072844341972359</v>
+        <v>0.8072844341972358</v>
       </c>
       <c r="E464">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,7 +8259,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>0.5544923112926143</v>
+        <v>0.5544923112926144</v>
       </c>
       <c r="C465">
         <v>0.5393621847931083</v>
@@ -8279,7 +8279,7 @@
         <v>0.57065839494377</v>
       </c>
       <c r="C466">
-        <v>0.559914192833975</v>
+        <v>0.5599141928339751</v>
       </c>
       <c r="D466">
         <v>0.6599086362461166</v>
@@ -8293,16 +8293,16 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.7816370757978085</v>
+        <v>0.7816370757978084</v>
       </c>
       <c r="C467">
         <v>0.7389928423856846</v>
       </c>
       <c r="D467">
-        <v>0.8072844341972358</v>
+        <v>0.8072844341972357</v>
       </c>
       <c r="E467">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,7 +8310,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C468">
         <v>0.8344155799540875</v>
@@ -8327,10 +8327,10 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C469">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540874</v>
       </c>
       <c r="D469">
         <v>0.9086229050109692</v>
@@ -8344,10 +8344,10 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="C470">
-        <v>0.8344155799540877</v>
+        <v>0.8344155799540875</v>
       </c>
       <c r="D470">
         <v>0.9086229050109692</v>
@@ -8361,16 +8361,16 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.7816370757978086</v>
+        <v>0.7816370757978085</v>
       </c>
       <c r="C471">
         <v>0.7389928423856846</v>
       </c>
       <c r="D471">
-        <v>0.8072844341972358</v>
+        <v>0.8072844341972357</v>
       </c>
       <c r="E471">
-        <v>0.8087948035898054</v>
+        <v>0.8087948035898052</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8418,7 +8418,7 @@
         <v>0.559914192833975</v>
       </c>
       <c r="D474">
-        <v>0.6599086362461168</v>
+        <v>0.6599086362461167</v>
       </c>
       <c r="E474">
         <v>0.6933606615728042</v>
@@ -8435,10 +8435,10 @@
         <v>0.5848920923401252</v>
       </c>
       <c r="D475">
-        <v>0.6724246843969128</v>
+        <v>0.6724246843969127</v>
       </c>
       <c r="E475">
-        <v>0.702753619000159</v>
+        <v>0.7027536190001591</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,13 +8449,13 @@
         <v>0.4866058283899052</v>
       </c>
       <c r="C476">
-        <v>0.5017095489926371</v>
+        <v>0.5017095489926372</v>
       </c>
       <c r="D476">
-        <v>0.6451751741066331</v>
+        <v>0.6451751741066329</v>
       </c>
       <c r="E476">
-        <v>0.6891603119405008</v>
+        <v>0.6891603119405005</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8469,10 +8469,10 @@
         <v>0.5017095489926371</v>
       </c>
       <c r="D477">
-        <v>0.6451751741066332</v>
+        <v>0.6451751741066329</v>
       </c>
       <c r="E477">
-        <v>0.6891603119405008</v>
+        <v>0.6891603119405005</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8486,7 +8486,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="D478">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="E478">
         <v>0.6529855746880122</v>
@@ -8517,7 +8517,7 @@
         <v>0.8298698091503163</v>
       </c>
       <c r="C480">
-        <v>0.6882840569918418</v>
+        <v>0.6882840569918419</v>
       </c>
       <c r="D480">
         <v>0.7297357921950741</v>
@@ -8537,7 +8537,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="D481">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="E481">
         <v>0.6529855746880122</v>
@@ -8554,7 +8554,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="D482">
-        <v>0.6168001162498825</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="E482">
         <v>0.6529855746880122</v>
@@ -8571,7 +8571,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="D483">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="E483">
         <v>0.6529855746880122</v>
@@ -8588,7 +8588,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="D484">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="E484">
         <v>0.6529855746880122</v>
@@ -8602,7 +8602,7 @@
         <v>0.8298698091503163</v>
       </c>
       <c r="C485">
-        <v>0.6882840569918417</v>
+        <v>0.6882840569918418</v>
       </c>
       <c r="D485">
         <v>0.7297357921950741</v>
@@ -8619,13 +8619,13 @@
         <v>0.819853100254991</v>
       </c>
       <c r="C486">
-        <v>0.6729283633300428</v>
+        <v>0.6729283633300429</v>
       </c>
       <c r="D486">
         <v>0.7141622540138708</v>
       </c>
       <c r="E486">
-        <v>0.7522711496869989</v>
+        <v>0.7522711496869988</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8636,7 +8636,7 @@
         <v>0.7944948620002152</v>
       </c>
       <c r="C487">
-        <v>0.6413684920685019</v>
+        <v>0.641368492068502</v>
       </c>
       <c r="D487">
         <v>0.6748162883988562</v>
@@ -8650,16 +8650,16 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.7765076887648265</v>
+        <v>0.7765076887648266</v>
       </c>
       <c r="C488">
         <v>0.6536675072383372</v>
       </c>
       <c r="D488">
-        <v>0.683788894898226</v>
+        <v>0.6837888948982258</v>
       </c>
       <c r="E488">
-        <v>0.7082362762475647</v>
+        <v>0.7082362762475646</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8673,10 +8673,10 @@
         <v>0.6536675072383372</v>
       </c>
       <c r="D489">
-        <v>0.6837888948982259</v>
+        <v>0.6837888948982257</v>
       </c>
       <c r="E489">
-        <v>0.7082362762475647</v>
+        <v>0.7082362762475646</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,7 +8684,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="C490">
         <v>0.8649644937277053</v>
@@ -8693,7 +8693,7 @@
         <v>0.888253643622342</v>
       </c>
       <c r="E490">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258971</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8701,10 +8701,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.9923146121228632</v>
+        <v>0.992314612122863</v>
       </c>
       <c r="C491">
-        <v>0.8960828543730586</v>
+        <v>0.8960828543730587</v>
       </c>
       <c r="D491">
         <v>0.9186907165727564</v>
@@ -8718,16 +8718,16 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="C492">
-        <v>0.8649644937277052</v>
+        <v>0.8649644937277053</v>
       </c>
       <c r="D492">
         <v>0.888253643622342</v>
       </c>
       <c r="E492">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258972</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8735,16 +8735,16 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="C493">
-        <v>0.8649644937277052</v>
+        <v>0.8649644937277053</v>
       </c>
       <c r="D493">
         <v>0.888253643622342</v>
       </c>
       <c r="E493">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258971</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8752,16 +8752,16 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="C494">
-        <v>0.8649644937277052</v>
+        <v>0.8649644937277053</v>
       </c>
       <c r="D494">
         <v>0.888253643622342</v>
       </c>
       <c r="E494">
-        <v>0.8773170074258974</v>
+        <v>0.8773170074258971</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>0.8608928366612996</v>
       </c>
       <c r="C495">
-        <v>0.8841797654493022</v>
+        <v>0.8841797654493023</v>
       </c>
       <c r="D495">
         <v>0.9437655169640243</v>
       </c>
       <c r="E495">
-        <v>0.9073120085479708</v>
+        <v>0.9073120085479707</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,13 +8789,13 @@
         <v>0.9843378042706168</v>
       </c>
       <c r="C496">
-        <v>0.9645215340632856</v>
+        <v>0.9645215340632858</v>
       </c>
       <c r="D496">
-        <v>0.9841533895111401</v>
+        <v>0.9841533895111398</v>
       </c>
       <c r="E496">
-        <v>0.9295099063693084</v>
+        <v>0.9295099063693083</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8809,10 +8809,10 @@
         <v>0.8841797654493022</v>
       </c>
       <c r="D497">
-        <v>0.9437655169640244</v>
+        <v>0.9437655169640243</v>
       </c>
       <c r="E497">
-        <v>0.9073120085479708</v>
+        <v>0.9073120085479707</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8823,10 +8823,10 @@
         <v>0.9000409644257666</v>
       </c>
       <c r="C498">
-        <v>0.8850682694149105</v>
+        <v>0.8850682694149106</v>
       </c>
       <c r="D498">
-        <v>0.9067806604071276</v>
+        <v>0.9067806604071275</v>
       </c>
       <c r="E498">
         <v>0.8654810141350223</v>
@@ -8843,10 +8843,10 @@
         <v>0.8850682694149106</v>
       </c>
       <c r="D499">
-        <v>0.9067806604071276</v>
+        <v>0.9067806604071275</v>
       </c>
       <c r="E499">
-        <v>0.8654810141350223</v>
+        <v>0.8654810141350222</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8863,7 +8863,7 @@
         <v>0.9067806604071276</v>
       </c>
       <c r="E500">
-        <v>0.8654810141350223</v>
+        <v>0.8654810141350222</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.776921433113037</v>
+        <v>0.7769214331130369</v>
       </c>
       <c r="C501">
-        <v>0.6687495726169533</v>
+        <v>0.6687495726169534</v>
       </c>
       <c r="D501">
         <v>0.700768267733279</v>
       </c>
       <c r="E501">
-        <v>0.7252145596531566</v>
+        <v>0.7252145596531565</v>
       </c>
     </row>
   </sheetData>
